--- a/Stocks/JKS/JKS_HighLow.xlsx
+++ b/Stocks/JKS/JKS_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>38.72999954223633</v>
+        <v>34.77999877929688</v>
       </c>
       <c r="B2">
-        <v>41.97999954223633</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="C2">
-        <v>37.79999923706055</v>
+        <v>34.63999938964844</v>
       </c>
       <c r="D2">
-        <v>41.29000091552734</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="E2">
-        <v>41.29000091552734</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="F2">
-        <v>3749400</v>
+        <v>7132400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>41.81999969482422</v>
+        <v>36.65999984741211</v>
       </c>
       <c r="B3">
-        <v>44.06999969482422</v>
+        <v>38.02000045776367</v>
       </c>
       <c r="C3">
-        <v>41.06000137329102</v>
+        <v>35.5</v>
       </c>
       <c r="D3">
-        <v>43.95999908447266</v>
+        <v>36.36000061035156</v>
       </c>
       <c r="E3">
-        <v>43.95999908447266</v>
+        <v>36.36000061035156</v>
       </c>
       <c r="F3">
-        <v>1891900</v>
+        <v>3746200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>42.72000122070312</v>
+        <v>35.86000061035156</v>
       </c>
       <c r="B4">
-        <v>42.9900016784668</v>
+        <v>36.43999862670898</v>
       </c>
       <c r="C4">
-        <v>38.5</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="D4">
-        <v>38.81000137329102</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="E4">
-        <v>38.81000137329102</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="F4">
-        <v>3002900</v>
+        <v>2034600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>40.84000015258789</v>
+        <v>36.47000122070312</v>
       </c>
       <c r="B5">
-        <v>44.52000045776367</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="C5">
-        <v>40.20999908447266</v>
+        <v>35.68999862670898</v>
       </c>
       <c r="D5">
-        <v>44.27000045776367</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="E5">
-        <v>44.27000045776367</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="F5">
-        <v>4034700</v>
+        <v>1627200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>44.20999908447266</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>45.11999893188477</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="C6">
-        <v>41.40000152587891</v>
+        <v>34.70999908447266</v>
       </c>
       <c r="D6">
-        <v>41.68999862670898</v>
+        <v>35.81000137329102</v>
       </c>
       <c r="E6">
-        <v>41.68999862670898</v>
+        <v>35.81000137329102</v>
       </c>
       <c r="F6">
-        <v>3525800</v>
+        <v>1606600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>42.36000061035156</v>
+        <v>36.52999877929688</v>
       </c>
       <c r="B7">
-        <v>42.81000137329102</v>
+        <v>38.13999938964844</v>
       </c>
       <c r="C7">
-        <v>40.79999923706055</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="D7">
-        <v>42.54999923706055</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E7">
-        <v>42.54999923706055</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F7">
-        <v>2175200</v>
+        <v>3284800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>43.5</v>
+        <v>39.5</v>
       </c>
       <c r="B8">
-        <v>43.58000183105469</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="C8">
-        <v>39.65999984741211</v>
+        <v>36.66999816894531</v>
       </c>
       <c r="D8">
-        <v>40.25</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="E8">
-        <v>40.25</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="F8">
-        <v>1620800</v>
+        <v>2650200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>41.29999923706055</v>
+        <v>36.95000076293945</v>
       </c>
       <c r="B9">
-        <v>43.06999969482422</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="C9">
-        <v>40.5</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="D9">
-        <v>41.93999862670898</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="E9">
-        <v>41.93999862670898</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="F9">
-        <v>1707300</v>
+        <v>1921500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>41.5099983215332</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="B10">
-        <v>41.83000183105469</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="C10">
-        <v>39.59999847412109</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="D10">
-        <v>39.72999954223633</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="E10">
-        <v>39.72999954223633</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="F10">
-        <v>1812200</v>
+        <v>1244100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>40.43000030517578</v>
+        <v>39.86000061035156</v>
       </c>
       <c r="B11">
-        <v>40.63000106811523</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="C11">
-        <v>38.77999877929688</v>
+        <v>37.9900016784668</v>
       </c>
       <c r="D11">
-        <v>38.86000061035156</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="E11">
-        <v>38.86000061035156</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="F11">
-        <v>2319600</v>
+        <v>1941400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>34.77999877929688</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="B12">
-        <v>38.79999923706055</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="C12">
-        <v>34.63999938964844</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="D12">
-        <v>38.65000152587891</v>
+        <v>39.22999954223633</v>
       </c>
       <c r="E12">
-        <v>38.65000152587891</v>
+        <v>39.22999954223633</v>
       </c>
       <c r="F12">
-        <v>7132400</v>
+        <v>1459200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>36.65999984741211</v>
+        <v>38.61999893188477</v>
       </c>
       <c r="B13">
-        <v>38.02000045776367</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="C13">
-        <v>35.5</v>
+        <v>38.22000122070312</v>
       </c>
       <c r="D13">
-        <v>36.36000061035156</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="E13">
-        <v>36.36000061035156</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="F13">
-        <v>3746200</v>
+        <v>1438000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>35.86000061035156</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="B14">
-        <v>36.43999862670898</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="C14">
-        <v>34.45000076293945</v>
+        <v>39.27999877929688</v>
       </c>
       <c r="D14">
-        <v>36.16999816894531</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="E14">
-        <v>36.16999816894531</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="F14">
-        <v>2034600</v>
+        <v>792900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>36.47000122070312</v>
+        <v>39.36000061035156</v>
       </c>
       <c r="B15">
-        <v>38.20000076293945</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="C15">
-        <v>35.68999862670898</v>
+        <v>38.22999954223633</v>
       </c>
       <c r="D15">
-        <v>36.56000137329102</v>
+        <v>38.7599983215332</v>
       </c>
       <c r="E15">
-        <v>36.56000137329102</v>
+        <v>38.7599983215332</v>
       </c>
       <c r="F15">
-        <v>1627200</v>
+        <v>963200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>37</v>
+        <v>39.54000091552734</v>
       </c>
       <c r="B16">
-        <v>37.04999923706055</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="C16">
-        <v>34.70999908447266</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="D16">
-        <v>35.81000137329102</v>
+        <v>37.93000030517578</v>
       </c>
       <c r="E16">
-        <v>35.81000137329102</v>
+        <v>37.93000030517578</v>
       </c>
       <c r="F16">
-        <v>1606600</v>
+        <v>853700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>36.52999877929688</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="B17">
-        <v>38.13999938964844</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="C17">
-        <v>35.72000122070312</v>
+        <v>36.52000045776367</v>
       </c>
       <c r="D17">
-        <v>37.88000106811523</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="E17">
-        <v>37.88000106811523</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="F17">
-        <v>3284800</v>
+        <v>800900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>39.5</v>
+        <v>37.18000030517578</v>
       </c>
       <c r="B18">
-        <v>40.34999847412109</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="C18">
-        <v>36.66999816894531</v>
+        <v>36.31000137329102</v>
       </c>
       <c r="D18">
-        <v>37.0099983215332</v>
+        <v>36.88999938964844</v>
       </c>
       <c r="E18">
-        <v>37.0099983215332</v>
+        <v>36.88999938964844</v>
       </c>
       <c r="F18">
-        <v>2650200</v>
+        <v>779000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>36.95000076293945</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="B19">
-        <v>38.70000076293945</v>
+        <v>35.36000061035156</v>
       </c>
       <c r="C19">
-        <v>36.20000076293945</v>
+        <v>33.66999816894531</v>
       </c>
       <c r="D19">
-        <v>36.97000122070312</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="E19">
-        <v>36.97000122070312</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="F19">
-        <v>1921500</v>
+        <v>1555600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>36.15999984741211</v>
+        <v>35.83000183105469</v>
       </c>
       <c r="B20">
-        <v>38.20999908447266</v>
+        <v>35.91999816894531</v>
       </c>
       <c r="C20">
-        <v>35.58000183105469</v>
+        <v>33.2400016784668</v>
       </c>
       <c r="D20">
-        <v>38.20999908447266</v>
+        <v>33.52000045776367</v>
       </c>
       <c r="E20">
-        <v>38.20999908447266</v>
+        <v>33.52000045776367</v>
       </c>
       <c r="F20">
-        <v>1244100</v>
+        <v>1502900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>39.86000061035156</v>
+        <v>32.68000030517578</v>
       </c>
       <c r="B21">
-        <v>40.34999847412109</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="C21">
-        <v>37.9900016784668</v>
+        <v>31.25</v>
       </c>
       <c r="D21">
-        <v>39.65000152587891</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="E21">
-        <v>39.65000152587891</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="F21">
-        <v>1941400</v>
+        <v>2228000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>39.68000030517578</v>
+        <v>32.47000122070312</v>
       </c>
       <c r="B22">
-        <v>40.43999862670898</v>
+        <v>33.54999923706055</v>
       </c>
       <c r="C22">
-        <v>38.63000106811523</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D22">
-        <v>39.22999954223633</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="E22">
-        <v>39.22999954223633</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="F22">
-        <v>1459200</v>
+        <v>934300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>38.61999893188477</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="B23">
-        <v>40.09999847412109</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="C23">
-        <v>38.22000122070312</v>
+        <v>30.25</v>
       </c>
       <c r="D23">
-        <v>39.95000076293945</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="E23">
-        <v>39.95000076293945</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="F23">
-        <v>1438000</v>
+        <v>1502300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>40.20999908447266</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="B24">
-        <v>40.34999847412109</v>
+        <v>31.68000030517578</v>
       </c>
       <c r="C24">
-        <v>39.27999877929688</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="D24">
-        <v>39.65999984741211</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="E24">
-        <v>39.65999984741211</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="F24">
-        <v>792900</v>
+        <v>1774400</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>39.36000061035156</v>
+        <v>31.14999961853027</v>
       </c>
       <c r="B25">
-        <v>39.4900016784668</v>
+        <v>31.88999938964844</v>
       </c>
       <c r="C25">
-        <v>38.22999954223633</v>
+        <v>30.14999961853027</v>
       </c>
       <c r="D25">
-        <v>38.7599983215332</v>
+        <v>30.51000022888184</v>
       </c>
       <c r="E25">
-        <v>38.7599983215332</v>
+        <v>30.51000022888184</v>
       </c>
       <c r="F25">
-        <v>963200</v>
+        <v>1671600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>39.54000091552734</v>
+        <v>30.90999984741211</v>
       </c>
       <c r="B26">
-        <v>39.65999984741211</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="C26">
-        <v>37.40000152587891</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="D26">
-        <v>37.93000030517578</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="E26">
-        <v>37.93000030517578</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="F26">
-        <v>853700</v>
+        <v>2088000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>36.79999923706055</v>
+        <v>31.3700008392334</v>
       </c>
       <c r="B27">
-        <v>37.86999893188477</v>
+        <v>32.04000091552734</v>
       </c>
       <c r="C27">
-        <v>36.52000045776367</v>
+        <v>30.95000076293945</v>
       </c>
       <c r="D27">
-        <v>36.95999908447266</v>
+        <v>31.46999931335449</v>
       </c>
       <c r="E27">
-        <v>36.95999908447266</v>
+        <v>31.46999931335449</v>
       </c>
       <c r="F27">
-        <v>800900</v>
+        <v>926700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>37.18000030517578</v>
+        <v>31.52000045776367</v>
       </c>
       <c r="B28">
-        <v>37.7400016784668</v>
+        <v>31.52000045776367</v>
       </c>
       <c r="C28">
-        <v>36.31000137329102</v>
+        <v>29.78000068664551</v>
       </c>
       <c r="D28">
-        <v>36.88999938964844</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="E28">
-        <v>36.88999938964844</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="F28">
-        <v>779000</v>
+        <v>1736900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>34.9900016784668</v>
+        <v>30.59000015258789</v>
       </c>
       <c r="B29">
-        <v>35.36000061035156</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="C29">
-        <v>33.66999816894531</v>
+        <v>28.45000076293945</v>
       </c>
       <c r="D29">
-        <v>34.15999984741211</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="E29">
-        <v>34.15999984741211</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="F29">
-        <v>1555600</v>
+        <v>1410300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>35.83000183105469</v>
+        <v>29.95999908447266</v>
       </c>
       <c r="B30">
-        <v>35.91999816894531</v>
+        <v>31.92000007629395</v>
       </c>
       <c r="C30">
-        <v>33.2400016784668</v>
+        <v>29.75</v>
       </c>
       <c r="D30">
-        <v>33.52000045776367</v>
+        <v>31.70999908447266</v>
       </c>
       <c r="E30">
-        <v>33.52000045776367</v>
+        <v>31.70999908447266</v>
       </c>
       <c r="F30">
-        <v>1502900</v>
+        <v>1022000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>32.68000030517578</v>
+        <v>32.56999969482422</v>
       </c>
       <c r="B31">
-        <v>32.90999984741211</v>
+        <v>34.45999908447266</v>
       </c>
       <c r="C31">
-        <v>31.25</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="D31">
-        <v>31.98999977111816</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="E31">
-        <v>31.98999977111816</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="F31">
-        <v>2228000</v>
+        <v>1716300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>32.47000122070312</v>
+        <v>34.54999923706055</v>
       </c>
       <c r="B32">
-        <v>33.54999923706055</v>
+        <v>35.2400016784668</v>
       </c>
       <c r="C32">
-        <v>32.20999908447266</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="D32">
-        <v>32.40999984741211</v>
+        <v>34.09000015258789</v>
       </c>
       <c r="E32">
-        <v>32.40999984741211</v>
+        <v>34.09000015258789</v>
       </c>
       <c r="F32">
-        <v>934300</v>
+        <v>1284200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>32.27999877929688</v>
+        <v>34.43999862670898</v>
       </c>
       <c r="B33">
-        <v>32.27999877929688</v>
+        <v>34.43999862670898</v>
       </c>
       <c r="C33">
-        <v>30.25</v>
+        <v>32.83000183105469</v>
       </c>
       <c r="D33">
-        <v>30.26000022888184</v>
+        <v>33.27000045776367</v>
       </c>
       <c r="E33">
-        <v>30.26000022888184</v>
+        <v>33.27000045776367</v>
       </c>
       <c r="F33">
-        <v>1502300</v>
+        <v>899800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>29.03000068664551</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="B34">
-        <v>31.68000030517578</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="C34">
-        <v>28.38999938964844</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="D34">
-        <v>31.3799991607666</v>
+        <v>33.11999893188477</v>
       </c>
       <c r="E34">
-        <v>31.3799991607666</v>
+        <v>33.11999893188477</v>
       </c>
       <c r="F34">
-        <v>1774400</v>
+        <v>676400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>31.14999961853027</v>
+        <v>33.29000091552734</v>
       </c>
       <c r="B35">
-        <v>31.88999938964844</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="C35">
-        <v>30.14999961853027</v>
+        <v>33.20999908447266</v>
       </c>
       <c r="D35">
-        <v>30.51000022888184</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="E35">
-        <v>30.51000022888184</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="F35">
-        <v>1671600</v>
+        <v>1192800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>30.90999984741211</v>
+        <v>35.61000061035156</v>
       </c>
       <c r="B36">
-        <v>31.35000038146973</v>
+        <v>36.36000061035156</v>
       </c>
       <c r="C36">
-        <v>29.52000045776367</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="D36">
-        <v>30.70999908447266</v>
+        <v>35.34000015258789</v>
       </c>
       <c r="E36">
-        <v>30.70999908447266</v>
+        <v>35.34000015258789</v>
       </c>
       <c r="F36">
-        <v>2088000</v>
+        <v>1197600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>31.3700008392334</v>
+        <v>35.90999984741211</v>
       </c>
       <c r="B37">
-        <v>32.04000091552734</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="C37">
-        <v>30.95000076293945</v>
+        <v>35.68000030517578</v>
       </c>
       <c r="D37">
-        <v>31.46999931335449</v>
+        <v>36.61000061035156</v>
       </c>
       <c r="E37">
-        <v>31.46999931335449</v>
+        <v>36.61000061035156</v>
       </c>
       <c r="F37">
-        <v>926700</v>
+        <v>1418100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>31.52000045776367</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="B38">
-        <v>31.52000045776367</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="C38">
-        <v>29.78000068664551</v>
+        <v>37.20000076293945</v>
       </c>
       <c r="D38">
-        <v>30.44000053405762</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="E38">
-        <v>30.44000053405762</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="F38">
-        <v>1736900</v>
+        <v>2311000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>30.59000015258789</v>
+        <v>39.25</v>
       </c>
       <c r="B39">
-        <v>31.54999923706055</v>
+        <v>42.16999816894531</v>
       </c>
       <c r="C39">
-        <v>28.45000076293945</v>
+        <v>38.56999969482422</v>
       </c>
       <c r="D39">
-        <v>30.71999931335449</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="E39">
-        <v>30.71999931335449</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="F39">
-        <v>1410300</v>
+        <v>1912000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>29.95999908447266</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B40">
-        <v>31.92000007629395</v>
+        <v>42.33000183105469</v>
       </c>
       <c r="C40">
-        <v>29.75</v>
+        <v>39.91999816894531</v>
       </c>
       <c r="D40">
-        <v>31.70999908447266</v>
+        <v>40.11000061035156</v>
       </c>
       <c r="E40">
-        <v>31.70999908447266</v>
+        <v>40.11000061035156</v>
       </c>
       <c r="F40">
-        <v>1022000</v>
+        <v>1549100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>32.56999969482422</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="B41">
-        <v>34.45999908447266</v>
+        <v>41.9900016784668</v>
       </c>
       <c r="C41">
-        <v>32.45999908447266</v>
+        <v>39.81000137329102</v>
       </c>
       <c r="D41">
-        <v>34.16999816894531</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E41">
-        <v>34.16999816894531</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F41">
-        <v>1716300</v>
+        <v>1166500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>34.54999923706055</v>
+        <v>40.70999908447266</v>
       </c>
       <c r="B42">
-        <v>35.2400016784668</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="C42">
-        <v>33.40999984741211</v>
+        <v>38.02000045776367</v>
       </c>
       <c r="D42">
-        <v>34.09000015258789</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="E42">
-        <v>34.09000015258789</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="F42">
-        <v>1284200</v>
+        <v>1639700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>34.43999862670898</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="B43">
-        <v>34.43999862670898</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="C43">
-        <v>32.83000183105469</v>
+        <v>36.84999847412109</v>
       </c>
       <c r="D43">
-        <v>33.27000045776367</v>
+        <v>39.11000061035156</v>
       </c>
       <c r="E43">
-        <v>33.27000045776367</v>
+        <v>39.11000061035156</v>
       </c>
       <c r="F43">
-        <v>899800</v>
+        <v>2310500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>33.61999893188477</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>33.97999954223633</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="C44">
-        <v>32.65000152587891</v>
+        <v>39</v>
       </c>
       <c r="D44">
-        <v>33.11999893188477</v>
+        <v>40.25</v>
       </c>
       <c r="E44">
-        <v>33.11999893188477</v>
+        <v>40.25</v>
       </c>
       <c r="F44">
-        <v>676400</v>
+        <v>1971900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>33.29000091552734</v>
+        <v>41.4900016784668</v>
       </c>
       <c r="B45">
-        <v>35.97999954223633</v>
+        <v>43.09000015258789</v>
       </c>
       <c r="C45">
-        <v>33.20999908447266</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="D45">
-        <v>35.97999954223633</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E45">
-        <v>35.97999954223633</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F45">
-        <v>1192800</v>
+        <v>3366900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>35.61000061035156</v>
+        <v>42.02000045776367</v>
       </c>
       <c r="B46">
-        <v>36.36000061035156</v>
+        <v>47.09999847412109</v>
       </c>
       <c r="C46">
-        <v>35.15999984741211</v>
+        <v>41.18999862670898</v>
       </c>
       <c r="D46">
-        <v>35.34000015258789</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="E46">
-        <v>35.34000015258789</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="F46">
-        <v>1197600</v>
+        <v>4309900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>35.90999984741211</v>
+        <v>46.41999816894531</v>
       </c>
       <c r="B47">
-        <v>36.93999862670898</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="C47">
-        <v>35.68000030517578</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="D47">
-        <v>36.61000061035156</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="E47">
-        <v>36.61000061035156</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="F47">
-        <v>1418100</v>
+        <v>1947900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>37.93999862670898</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="B48">
-        <v>39.95000076293945</v>
+        <v>45.58000183105469</v>
       </c>
       <c r="C48">
-        <v>37.20000076293945</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="D48">
-        <v>39.41999816894531</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="E48">
-        <v>39.41999816894531</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="F48">
-        <v>2311000</v>
+        <v>3193600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>39.25</v>
+        <v>40.91999816894531</v>
       </c>
       <c r="B49">
-        <v>42.16999816894531</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>38.56999969482422</v>
+        <v>39.38999938964844</v>
       </c>
       <c r="D49">
-        <v>41.83000183105469</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="E49">
-        <v>41.83000183105469</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="F49">
-        <v>1912000</v>
+        <v>1670900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>40.45000076293945</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="B50">
-        <v>42.33000183105469</v>
+        <v>41.7599983215332</v>
       </c>
       <c r="C50">
-        <v>39.91999816894531</v>
+        <v>39.52999877929688</v>
       </c>
       <c r="D50">
-        <v>40.11000061035156</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="E50">
-        <v>40.11000061035156</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="F50">
-        <v>1549100</v>
+        <v>1563400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>40.56000137329102</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="B51">
-        <v>41.9900016784668</v>
+        <v>40.70999908447266</v>
       </c>
       <c r="C51">
-        <v>39.81000137329102</v>
+        <v>38.34000015258789</v>
       </c>
       <c r="D51">
-        <v>41.20999908447266</v>
+        <v>39.34999847412109</v>
       </c>
       <c r="E51">
-        <v>41.20999908447266</v>
+        <v>39.34999847412109</v>
       </c>
       <c r="F51">
-        <v>1166500</v>
+        <v>1674000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>40.70999908447266</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="B52">
-        <v>41.20999908447266</v>
+        <v>42.65999984741211</v>
       </c>
       <c r="C52">
-        <v>38.02000045776367</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="D52">
-        <v>38.38999938964844</v>
+        <v>41.25</v>
       </c>
       <c r="E52">
-        <v>38.38999938964844</v>
+        <v>41.25</v>
       </c>
       <c r="F52">
-        <v>1639700</v>
+        <v>2726700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>39.29999923706055</v>
+        <v>39.58000183105469</v>
       </c>
       <c r="B53">
-        <v>39.29999923706055</v>
+        <v>40.22999954223633</v>
       </c>
       <c r="C53">
-        <v>36.84999847412109</v>
+        <v>37.06000137329102</v>
       </c>
       <c r="D53">
-        <v>39.11000061035156</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="E53">
-        <v>39.11000061035156</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="F53">
-        <v>2310500</v>
+        <v>3236100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>39</v>
+        <v>37.66999816894531</v>
       </c>
       <c r="B54">
-        <v>41.93999862670898</v>
+        <v>38.68999862670898</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>37.40999984741211</v>
       </c>
       <c r="D54">
-        <v>40.25</v>
+        <v>38.36999893188477</v>
       </c>
       <c r="E54">
-        <v>40.25</v>
+        <v>38.36999893188477</v>
       </c>
       <c r="F54">
-        <v>1971900</v>
+        <v>2146800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>41.4900016784668</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="B55">
-        <v>43.09000015258789</v>
+        <v>39.25</v>
       </c>
       <c r="C55">
-        <v>40.70000076293945</v>
+        <v>35.63999938964844</v>
       </c>
       <c r="D55">
-        <v>41.20999908447266</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="E55">
-        <v>41.20999908447266</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="F55">
-        <v>3366900</v>
+        <v>4380200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>42.02000045776367</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="B56">
-        <v>47.09999847412109</v>
+        <v>43.06999969482422</v>
       </c>
       <c r="C56">
-        <v>41.18999862670898</v>
+        <v>36.70999908447266</v>
       </c>
       <c r="D56">
-        <v>46.20999908447266</v>
+        <v>43</v>
       </c>
       <c r="E56">
-        <v>46.20999908447266</v>
+        <v>43</v>
       </c>
       <c r="F56">
-        <v>4309900</v>
+        <v>5017600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>46.41999816894531</v>
+        <v>43.36000061035156</v>
       </c>
       <c r="B57">
-        <v>46.77999877929688</v>
+        <v>53.68999862670898</v>
       </c>
       <c r="C57">
-        <v>43.90999984741211</v>
+        <v>43.31999969482422</v>
       </c>
       <c r="D57">
-        <v>45.29999923706055</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="E57">
-        <v>45.29999923706055</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="F57">
-        <v>1947900</v>
+        <v>8419200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>45.29999923706055</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="B58">
-        <v>45.58000183105469</v>
+        <v>58.38999938964844</v>
       </c>
       <c r="C58">
-        <v>40.09999847412109</v>
+        <v>51.52999877929688</v>
       </c>
       <c r="D58">
-        <v>40.31000137329102</v>
+        <v>57.56000137329102</v>
       </c>
       <c r="E58">
-        <v>40.31000137329102</v>
+        <v>57.56000137329102</v>
       </c>
       <c r="F58">
-        <v>3193600</v>
+        <v>5996500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>40.91999816894531</v>
+        <v>54.93999862670898</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="C59">
-        <v>39.38999938964844</v>
+        <v>54.06000137329102</v>
       </c>
       <c r="D59">
-        <v>40.29999923706055</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="E59">
-        <v>40.29999923706055</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="F59">
-        <v>1670900</v>
+        <v>2806800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>39.81999969482422</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="B60">
-        <v>41.7599983215332</v>
+        <v>55.5</v>
       </c>
       <c r="C60">
-        <v>39.52999877929688</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="D60">
-        <v>39.95999908447266</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="E60">
-        <v>39.95999908447266</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="F60">
-        <v>1563400</v>
+        <v>2381000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>39.59999847412109</v>
+        <v>50.13999938964844</v>
       </c>
       <c r="B61">
-        <v>40.70999908447266</v>
+        <v>53.25</v>
       </c>
       <c r="C61">
-        <v>38.34000015258789</v>
+        <v>50.11999893188477</v>
       </c>
       <c r="D61">
-        <v>39.34999847412109</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E61">
-        <v>39.34999847412109</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F61">
-        <v>1674000</v>
+        <v>1884200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>39.41999816894531</v>
+        <v>50</v>
       </c>
       <c r="B62">
-        <v>42.65999984741211</v>
+        <v>54.45999908447266</v>
       </c>
       <c r="C62">
-        <v>39.15000152587891</v>
+        <v>48.79000091552734</v>
       </c>
       <c r="D62">
-        <v>41.25</v>
+        <v>54.34999847412109</v>
       </c>
       <c r="E62">
-        <v>41.25</v>
+        <v>54.34999847412109</v>
       </c>
       <c r="F62">
-        <v>2726700</v>
+        <v>2468600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>39.58000183105469</v>
+        <v>57.59000015258789</v>
       </c>
       <c r="B63">
-        <v>40.22999954223633</v>
+        <v>63.45999908447266</v>
       </c>
       <c r="C63">
-        <v>37.06000137329102</v>
+        <v>57.04000091552734</v>
       </c>
       <c r="D63">
-        <v>37.13999938964844</v>
+        <v>60.13999938964844</v>
       </c>
       <c r="E63">
-        <v>37.13999938964844</v>
+        <v>60.13999938964844</v>
       </c>
       <c r="F63">
-        <v>3236100</v>
+        <v>7720900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>37.66999816894531</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="B64">
-        <v>38.68999862670898</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="C64">
-        <v>37.40999984741211</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="D64">
-        <v>38.36999893188477</v>
+        <v>58.79000091552734</v>
       </c>
       <c r="E64">
-        <v>38.36999893188477</v>
+        <v>58.79000091552734</v>
       </c>
       <c r="F64">
-        <v>2146800</v>
+        <v>2622500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>37.0099983215332</v>
+        <v>59.56000137329102</v>
       </c>
       <c r="B65">
-        <v>39.25</v>
+        <v>59.65999984741211</v>
       </c>
       <c r="C65">
-        <v>35.63999938964844</v>
+        <v>54.79000091552734</v>
       </c>
       <c r="D65">
-        <v>37.86000061035156</v>
+        <v>56.7599983215332</v>
       </c>
       <c r="E65">
-        <v>37.86000061035156</v>
+        <v>56.7599983215332</v>
       </c>
       <c r="F65">
-        <v>4380200</v>
+        <v>3107500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>36.95999908447266</v>
+        <v>57.79000091552734</v>
       </c>
       <c r="B66">
-        <v>43.06999969482422</v>
+        <v>62.52999877929688</v>
       </c>
       <c r="C66">
-        <v>36.70999908447266</v>
+        <v>57.15999984741211</v>
       </c>
       <c r="D66">
-        <v>43</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="E66">
-        <v>43</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F66">
-        <v>5017600</v>
+        <v>2864300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>43.36000061035156</v>
+        <v>60.90999984741211</v>
       </c>
       <c r="B67">
-        <v>53.68999862670898</v>
+        <v>62.65000152587891</v>
       </c>
       <c r="C67">
-        <v>43.31999969482422</v>
+        <v>58.65999984741211</v>
       </c>
       <c r="D67">
-        <v>52.84999847412109</v>
+        <v>61.77999877929688</v>
       </c>
       <c r="E67">
-        <v>52.84999847412109</v>
+        <v>61.77999877929688</v>
       </c>
       <c r="F67">
-        <v>8419200</v>
+        <v>1809600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>51.61999893188477</v>
+        <v>61.68999862670898</v>
       </c>
       <c r="B68">
-        <v>58.38999938964844</v>
+        <v>61.75</v>
       </c>
       <c r="C68">
-        <v>51.52999877929688</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="D68">
-        <v>57.56000137329102</v>
+        <v>56.72000122070312</v>
       </c>
       <c r="E68">
-        <v>57.56000137329102</v>
+        <v>56.72000122070312</v>
       </c>
       <c r="F68">
-        <v>5996500</v>
+        <v>1539700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>54.93999862670898</v>
+        <v>59.93000030517578</v>
       </c>
       <c r="B69">
-        <v>57.15000152587891</v>
+        <v>63</v>
       </c>
       <c r="C69">
-        <v>54.06000137329102</v>
+        <v>58.63999938964844</v>
       </c>
       <c r="D69">
-        <v>56.02000045776367</v>
+        <v>60.2599983215332</v>
       </c>
       <c r="E69">
-        <v>56.02000045776367</v>
+        <v>60.2599983215332</v>
       </c>
       <c r="F69">
-        <v>2806800</v>
+        <v>3174800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>55.13000106811523</v>
+        <v>59.36999893188477</v>
       </c>
       <c r="B70">
-        <v>55.5</v>
+        <v>59.88999938964844</v>
       </c>
       <c r="C70">
-        <v>51.20999908447266</v>
+        <v>56.18000030517578</v>
       </c>
       <c r="D70">
-        <v>52.06999969482422</v>
+        <v>58</v>
       </c>
       <c r="E70">
-        <v>52.06999969482422</v>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>2381000</v>
+        <v>1934300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>50.13999938964844</v>
+        <v>56.02999877929688</v>
       </c>
       <c r="B71">
-        <v>53.25</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>50.11999893188477</v>
+        <v>51.36000061035156</v>
       </c>
       <c r="D71">
-        <v>50.40000152587891</v>
+        <v>54.20999908447266</v>
       </c>
       <c r="E71">
-        <v>50.40000152587891</v>
+        <v>54.20999908447266</v>
       </c>
       <c r="F71">
-        <v>1884200</v>
+        <v>3061900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>50</v>
+        <v>54.66999816894531</v>
       </c>
       <c r="B72">
-        <v>54.45999908447266</v>
+        <v>56.77000045776367</v>
       </c>
       <c r="C72">
-        <v>48.79000091552734</v>
+        <v>53.34999847412109</v>
       </c>
       <c r="D72">
-        <v>54.34999847412109</v>
+        <v>56.18999862670898</v>
       </c>
       <c r="E72">
-        <v>54.34999847412109</v>
+        <v>56.18999862670898</v>
       </c>
       <c r="F72">
-        <v>2468600</v>
+        <v>1207400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>57.59000015258789</v>
+        <v>57.47000122070312</v>
       </c>
       <c r="B73">
-        <v>63.45999908447266</v>
+        <v>61.86999893188477</v>
       </c>
       <c r="C73">
-        <v>57.04000091552734</v>
+        <v>57.40000152587891</v>
       </c>
       <c r="D73">
-        <v>60.13999938964844</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="E73">
-        <v>60.13999938964844</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="F73">
-        <v>7720900</v>
+        <v>2417600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>56.86000061035156</v>
+        <v>62.34000015258789</v>
       </c>
       <c r="B74">
-        <v>59.29999923706055</v>
+        <v>64.76000213623047</v>
       </c>
       <c r="C74">
-        <v>55.34999847412109</v>
+        <v>59.40999984741211</v>
       </c>
       <c r="D74">
-        <v>58.79000091552734</v>
+        <v>60.88999938964844</v>
       </c>
       <c r="E74">
-        <v>58.79000091552734</v>
+        <v>60.88999938964844</v>
       </c>
       <c r="F74">
-        <v>2622500</v>
+        <v>2135300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>59.56000137329102</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="B75">
-        <v>59.65999984741211</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="C75">
-        <v>54.79000091552734</v>
+        <v>54.68000030517578</v>
       </c>
       <c r="D75">
-        <v>56.7599983215332</v>
+        <v>56.75</v>
       </c>
       <c r="E75">
-        <v>56.7599983215332</v>
+        <v>56.75</v>
       </c>
       <c r="F75">
-        <v>3107500</v>
+        <v>2112500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>57.79000091552734</v>
+        <v>54.5</v>
       </c>
       <c r="B76">
-        <v>62.52999877929688</v>
+        <v>57.40000152587891</v>
       </c>
       <c r="C76">
-        <v>57.15999984741211</v>
+        <v>53</v>
       </c>
       <c r="D76">
-        <v>61.90000152587891</v>
+        <v>53.66999816894531</v>
       </c>
       <c r="E76">
-        <v>61.90000152587891</v>
+        <v>53.66999816894531</v>
       </c>
       <c r="F76">
-        <v>2864300</v>
+        <v>1545300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>60.90999984741211</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="B77">
-        <v>62.65000152587891</v>
+        <v>51.5</v>
       </c>
       <c r="C77">
-        <v>58.65999984741211</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="D77">
-        <v>61.77999877929688</v>
+        <v>46.2400016784668</v>
       </c>
       <c r="E77">
-        <v>61.77999877929688</v>
+        <v>46.2400016784668</v>
       </c>
       <c r="F77">
-        <v>1809600</v>
+        <v>4865900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>61.68999862670898</v>
+        <v>48.59000015258789</v>
       </c>
       <c r="B78">
-        <v>61.75</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="C78">
-        <v>56.70000076293945</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="D78">
-        <v>56.72000122070312</v>
+        <v>53.27999877929688</v>
       </c>
       <c r="E78">
-        <v>56.72000122070312</v>
+        <v>53.27999877929688</v>
       </c>
       <c r="F78">
-        <v>1539700</v>
+        <v>3301200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>59.93000030517578</v>
+        <v>53.04999923706055</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>55.02000045776367</v>
       </c>
       <c r="C79">
-        <v>58.63999938964844</v>
+        <v>51.0099983215332</v>
       </c>
       <c r="D79">
-        <v>60.2599983215332</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="E79">
-        <v>60.2599983215332</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="F79">
-        <v>3174800</v>
+        <v>1590700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>59.36999893188477</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="B80">
-        <v>59.88999938964844</v>
+        <v>55.86000061035156</v>
       </c>
       <c r="C80">
-        <v>56.18000030517578</v>
+        <v>51.27999877929688</v>
       </c>
       <c r="D80">
-        <v>58</v>
+        <v>53.88999938964844</v>
       </c>
       <c r="E80">
-        <v>58</v>
+        <v>53.88999938964844</v>
       </c>
       <c r="F80">
-        <v>1934300</v>
+        <v>1019900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>56.02999877929688</v>
+        <v>55.06000137329102</v>
       </c>
       <c r="B81">
-        <v>57</v>
+        <v>56.25</v>
       </c>
       <c r="C81">
-        <v>51.36000061035156</v>
+        <v>54.15999984741211</v>
       </c>
       <c r="D81">
-        <v>54.20999908447266</v>
+        <v>54.75</v>
       </c>
       <c r="E81">
-        <v>54.20999908447266</v>
+        <v>54.75</v>
       </c>
       <c r="F81">
-        <v>3061900</v>
+        <v>825100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>54.66999816894531</v>
+        <v>54.95000076293945</v>
       </c>
       <c r="B82">
-        <v>56.77000045776367</v>
+        <v>57.11000061035156</v>
       </c>
       <c r="C82">
-        <v>53.34999847412109</v>
+        <v>53.95000076293945</v>
       </c>
       <c r="D82">
-        <v>56.18999862670898</v>
+        <v>57.09000015258789</v>
       </c>
       <c r="E82">
-        <v>56.18999862670898</v>
+        <v>57.09000015258789</v>
       </c>
       <c r="F82">
-        <v>1207400</v>
+        <v>1109900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>57.47000122070312</v>
+        <v>58.36999893188477</v>
       </c>
       <c r="B83">
-        <v>61.86999893188477</v>
+        <v>58.63000106811523</v>
       </c>
       <c r="C83">
-        <v>57.40000152587891</v>
+        <v>55.45999908447266</v>
       </c>
       <c r="D83">
-        <v>61.56000137329102</v>
+        <v>55.90999984741211</v>
       </c>
       <c r="E83">
-        <v>61.56000137329102</v>
+        <v>55.90999984741211</v>
       </c>
       <c r="F83">
-        <v>2417600</v>
+        <v>1115800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>62.34000015258789</v>
+        <v>55.45999908447266</v>
       </c>
       <c r="B84">
-        <v>64.76000213623047</v>
+        <v>57.63000106811523</v>
       </c>
       <c r="C84">
-        <v>59.40999984741211</v>
+        <v>55.20000076293945</v>
       </c>
       <c r="D84">
-        <v>60.88999938964844</v>
+        <v>55.68000030517578</v>
       </c>
       <c r="E84">
-        <v>60.88999938964844</v>
+        <v>55.68000030517578</v>
       </c>
       <c r="F84">
-        <v>2135300</v>
+        <v>700500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>58.61999893188477</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="B85">
-        <v>58.61999893188477</v>
+        <v>56.93000030517578</v>
       </c>
       <c r="C85">
-        <v>54.68000030517578</v>
+        <v>54.27000045776367</v>
       </c>
       <c r="D85">
-        <v>56.75</v>
+        <v>55.18000030517578</v>
       </c>
       <c r="E85">
-        <v>56.75</v>
+        <v>55.18000030517578</v>
       </c>
       <c r="F85">
-        <v>2112500</v>
+        <v>976700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>54.5</v>
+        <v>55.27999877929688</v>
       </c>
       <c r="B86">
-        <v>57.40000152587891</v>
+        <v>58.59000015258789</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>54.08000183105469</v>
       </c>
       <c r="D86">
-        <v>53.66999816894531</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="E86">
-        <v>53.66999816894531</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="F86">
-        <v>1545300</v>
+        <v>912500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>50.20000076293945</v>
+        <v>59.52000045776367</v>
       </c>
       <c r="B87">
-        <v>51.5</v>
+        <v>61.13999938964844</v>
       </c>
       <c r="C87">
-        <v>44.2599983215332</v>
+        <v>58.11000061035156</v>
       </c>
       <c r="D87">
-        <v>46.2400016784668</v>
+        <v>59.43000030517578</v>
       </c>
       <c r="E87">
-        <v>46.2400016784668</v>
+        <v>59.43000030517578</v>
       </c>
       <c r="F87">
-        <v>4865900</v>
+        <v>1681500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>48.59000015258789</v>
+        <v>59.56999969482422</v>
       </c>
       <c r="B88">
-        <v>54.40000152587891</v>
+        <v>59.56999969482422</v>
       </c>
       <c r="C88">
-        <v>47.20000076293945</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="D88">
-        <v>53.27999877929688</v>
+        <v>56</v>
       </c>
       <c r="E88">
-        <v>53.27999877929688</v>
+        <v>56</v>
       </c>
       <c r="F88">
-        <v>3301200</v>
+        <v>2232800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>53.04999923706055</v>
+        <v>54.93000030517578</v>
       </c>
       <c r="B89">
-        <v>55.02000045776367</v>
+        <v>57.45999908447266</v>
       </c>
       <c r="C89">
-        <v>51.0099983215332</v>
+        <v>52.90999984741211</v>
       </c>
       <c r="D89">
-        <v>52.95000076293945</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="E89">
-        <v>52.95000076293945</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="F89">
-        <v>1590700</v>
+        <v>1505100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>51.79999923706055</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B90">
-        <v>55.86000061035156</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C90">
-        <v>51.27999877929688</v>
+        <v>45.22000122070312</v>
       </c>
       <c r="D90">
-        <v>53.88999938964844</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="E90">
-        <v>53.88999938964844</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="F90">
-        <v>1019900</v>
+        <v>3793000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>55.06000137329102</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="B91">
-        <v>56.25</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C91">
-        <v>54.15999984741211</v>
+        <v>43.34000015258789</v>
       </c>
       <c r="D91">
-        <v>54.75</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E91">
-        <v>54.75</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F91">
-        <v>825100</v>
+        <v>3227900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>54.95000076293945</v>
+        <v>42.04999923706055</v>
       </c>
       <c r="B92">
-        <v>57.11000061035156</v>
+        <v>42.70999908447266</v>
       </c>
       <c r="C92">
-        <v>53.95000076293945</v>
+        <v>40</v>
       </c>
       <c r="D92">
-        <v>57.09000015258789</v>
+        <v>41</v>
       </c>
       <c r="E92">
-        <v>57.09000015258789</v>
+        <v>41</v>
       </c>
       <c r="F92">
-        <v>1109900</v>
+        <v>2697000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>58.36999893188477</v>
+        <v>43.13000106811523</v>
       </c>
       <c r="B93">
-        <v>58.63000106811523</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="C93">
-        <v>55.45999908447266</v>
+        <v>40.88000106811523</v>
       </c>
       <c r="D93">
-        <v>55.90999984741211</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E93">
-        <v>55.90999984741211</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F93">
-        <v>1115800</v>
+        <v>2322500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>55.45999908447266</v>
+        <v>39.75</v>
       </c>
       <c r="B94">
-        <v>57.63000106811523</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="C94">
-        <v>55.20000076293945</v>
+        <v>37.31999969482422</v>
       </c>
       <c r="D94">
-        <v>55.68000030517578</v>
+        <v>37.47999954223633</v>
       </c>
       <c r="E94">
-        <v>55.68000030517578</v>
+        <v>37.47999954223633</v>
       </c>
       <c r="F94">
-        <v>700500</v>
+        <v>2735500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>55.70000076293945</v>
+        <v>38.97000122070312</v>
       </c>
       <c r="B95">
-        <v>56.93000030517578</v>
+        <v>41.06999969482422</v>
       </c>
       <c r="C95">
-        <v>54.27000045776367</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D95">
-        <v>55.18000030517578</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="E95">
-        <v>55.18000030517578</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="F95">
-        <v>976700</v>
+        <v>2525100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>55.27999877929688</v>
+        <v>41.15000152587891</v>
       </c>
       <c r="B96">
-        <v>58.59000015258789</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="C96">
-        <v>54.08000183105469</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="D96">
-        <v>58.31000137329102</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="E96">
-        <v>58.31000137329102</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="F96">
-        <v>912500</v>
+        <v>1859000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>59.52000045776367</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B97">
-        <v>61.13999938964844</v>
+        <v>44.38999938964844</v>
       </c>
       <c r="C97">
-        <v>58.11000061035156</v>
+        <v>42.2599983215332</v>
       </c>
       <c r="D97">
-        <v>59.43000030517578</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="E97">
-        <v>59.43000030517578</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="F97">
-        <v>1681500</v>
+        <v>1978100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>59.56999969482422</v>
+        <v>45.18000030517578</v>
       </c>
       <c r="B98">
-        <v>59.56999969482422</v>
+        <v>45.34999847412109</v>
       </c>
       <c r="C98">
-        <v>54.56000137329102</v>
+        <v>42.63000106811523</v>
       </c>
       <c r="D98">
-        <v>56</v>
+        <v>45.22999954223633</v>
       </c>
       <c r="E98">
-        <v>56</v>
+        <v>45.22999954223633</v>
       </c>
       <c r="F98">
-        <v>2232800</v>
+        <v>1562000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>54.93000030517578</v>
+        <v>43.31999969482422</v>
       </c>
       <c r="B99">
-        <v>57.45999908447266</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="C99">
-        <v>52.90999984741211</v>
+        <v>43.11000061035156</v>
       </c>
       <c r="D99">
-        <v>53.36000061035156</v>
+        <v>44.09999847412109</v>
       </c>
       <c r="E99">
-        <v>53.36000061035156</v>
+        <v>44.09999847412109</v>
       </c>
       <c r="F99">
-        <v>1505100</v>
+        <v>939200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>53.93000030517578</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="B100">
-        <v>53.93000030517578</v>
+        <v>45.08000183105469</v>
       </c>
       <c r="C100">
-        <v>45.22000122070312</v>
+        <v>43.41999816894531</v>
       </c>
       <c r="D100">
-        <v>45.7400016784668</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="E100">
-        <v>45.7400016784668</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="F100">
-        <v>3793000</v>
+        <v>1380100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>46.5099983215332</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="B101">
-        <v>46.66999816894531</v>
+        <v>50.90000152587891</v>
       </c>
       <c r="C101">
-        <v>43.34000015258789</v>
+        <v>45.2599983215332</v>
       </c>
       <c r="D101">
-        <v>43.59999847412109</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="E101">
-        <v>43.59999847412109</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="F101">
-        <v>3227900</v>
+        <v>3729900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>42.04999923706055</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="B102">
-        <v>42.70999908447266</v>
+        <v>50.47999954223633</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>47.84000015258789</v>
       </c>
       <c r="D102">
-        <v>41</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="E102">
-        <v>41</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="F102">
-        <v>2697000</v>
+        <v>1775700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>43.13000106811523</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="B103">
-        <v>43.20000076293945</v>
+        <v>51.09000015258789</v>
       </c>
       <c r="C103">
-        <v>40.88000106811523</v>
+        <v>48.5</v>
       </c>
       <c r="D103">
-        <v>41.20999908447266</v>
+        <v>50.18999862670898</v>
       </c>
       <c r="E103">
-        <v>41.20999908447266</v>
+        <v>50.18999862670898</v>
       </c>
       <c r="F103">
-        <v>2322500</v>
+        <v>1408200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>39.75</v>
+        <v>52.72999954223633</v>
       </c>
       <c r="B104">
-        <v>40.27999877929688</v>
+        <v>55.9900016784668</v>
       </c>
       <c r="C104">
-        <v>37.31999969482422</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="D104">
-        <v>37.47999954223633</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="E104">
-        <v>37.47999954223633</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="F104">
-        <v>2735500</v>
+        <v>2909400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>38.97000122070312</v>
+        <v>50.93999862670898</v>
       </c>
       <c r="B105">
-        <v>41.06999969482422</v>
+        <v>51.95999908447266</v>
       </c>
       <c r="C105">
-        <v>38.5099983215332</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="D105">
-        <v>40.15999984741211</v>
+        <v>51.43000030517578</v>
       </c>
       <c r="E105">
-        <v>40.15999984741211</v>
+        <v>51.43000030517578</v>
       </c>
       <c r="F105">
-        <v>2525100</v>
+        <v>1195300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>41.15000152587891</v>
+        <v>51.79000091552734</v>
       </c>
       <c r="B106">
-        <v>42.31000137329102</v>
+        <v>53.88000106811523</v>
       </c>
       <c r="C106">
-        <v>39.70999908447266</v>
+        <v>50.79999923706055</v>
       </c>
       <c r="D106">
-        <v>41.20000076293945</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="E106">
-        <v>41.20000076293945</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="F106">
-        <v>1859000</v>
+        <v>1838900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>42.83000183105469</v>
+        <v>51.95999908447266</v>
       </c>
       <c r="B107">
-        <v>44.38999938964844</v>
+        <v>52.47000122070312</v>
       </c>
       <c r="C107">
-        <v>42.2599983215332</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="D107">
-        <v>44.15000152587891</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="E107">
-        <v>44.15000152587891</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="F107">
-        <v>1978100</v>
+        <v>1607600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>45.18000030517578</v>
+        <v>47.75</v>
       </c>
       <c r="B108">
-        <v>45.34999847412109</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="C108">
-        <v>42.63000106811523</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="D108">
-        <v>45.22999954223633</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E108">
-        <v>45.22999954223633</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F108">
-        <v>1562000</v>
+        <v>778900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>43.31999969482422</v>
+        <v>50.9900016784668</v>
       </c>
       <c r="B109">
-        <v>45.70000076293945</v>
+        <v>52.40999984741211</v>
       </c>
       <c r="C109">
-        <v>43.11000061035156</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="D109">
-        <v>44.09999847412109</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="E109">
-        <v>44.09999847412109</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="F109">
-        <v>939200</v>
+        <v>1854600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
+        <v>47.61999893188477</v>
+      </c>
+      <c r="B110">
+        <v>48.29000091552734</v>
+      </c>
+      <c r="C110">
         <v>44.2599983215332</v>
       </c>
-      <c r="B110">
-        <v>45.08000183105469</v>
-      </c>
-      <c r="C110">
-        <v>43.41999816894531</v>
-      </c>
       <c r="D110">
-        <v>44.45000076293945</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="E110">
-        <v>44.45000076293945</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="F110">
-        <v>1380100</v>
+        <v>1887400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>45.70000076293945</v>
+        <v>47.56000137329102</v>
       </c>
       <c r="B111">
-        <v>50.90000152587891</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C111">
-        <v>45.2599983215332</v>
+        <v>46.18000030517578</v>
       </c>
       <c r="D111">
-        <v>49.08000183105469</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="E111">
-        <v>49.08000183105469</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="F111">
-        <v>3729900</v>
+        <v>1435400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>48.29999923706055</v>
+        <v>48.06000137329102</v>
       </c>
       <c r="B112">
-        <v>50.47999954223633</v>
+        <v>50.86999893188477</v>
       </c>
       <c r="C112">
-        <v>47.84000015258789</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="D112">
-        <v>49.20000076293945</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="E112">
-        <v>49.20000076293945</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="F112">
-        <v>1775700</v>
+        <v>2525700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>48.65000152587891</v>
+        <v>47.27999877929688</v>
       </c>
       <c r="B113">
-        <v>51.09000015258789</v>
+        <v>47.93000030517578</v>
       </c>
       <c r="C113">
-        <v>48.5</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="D113">
-        <v>50.18999862670898</v>
+        <v>46.93999862670898</v>
       </c>
       <c r="E113">
-        <v>50.18999862670898</v>
+        <v>46.93999862670898</v>
       </c>
       <c r="F113">
-        <v>1408200</v>
+        <v>1348400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>52.72999954223633</v>
+        <v>46.63000106811523</v>
       </c>
       <c r="B114">
-        <v>55.9900016784668</v>
+        <v>48.47000122070312</v>
       </c>
       <c r="C114">
-        <v>51.52000045776367</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="D114">
-        <v>51.61999893188477</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="E114">
-        <v>51.61999893188477</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="F114">
-        <v>2909400</v>
+        <v>1663300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>50.93999862670898</v>
+        <v>44.81000137329102</v>
       </c>
       <c r="B115">
-        <v>51.95999908447266</v>
+        <v>45.88000106811523</v>
       </c>
       <c r="C115">
-        <v>49.68000030517578</v>
+        <v>42.86999893188477</v>
       </c>
       <c r="D115">
-        <v>51.43000030517578</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="E115">
-        <v>51.43000030517578</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="F115">
-        <v>1195300</v>
+        <v>1832900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>51.79000091552734</v>
+        <v>44.81999969482422</v>
       </c>
       <c r="B116">
-        <v>53.88000106811523</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="C116">
-        <v>50.79999923706055</v>
+        <v>44.16999816894531</v>
       </c>
       <c r="D116">
-        <v>51.56999969482422</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="E116">
-        <v>51.56999969482422</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="F116">
-        <v>1838900</v>
+        <v>1663200</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>51.95999908447266</v>
+        <v>46.5</v>
       </c>
       <c r="B117">
-        <v>52.47000122070312</v>
+        <v>48.18000030517578</v>
       </c>
       <c r="C117">
-        <v>48.20999908447266</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="D117">
-        <v>48.72000122070312</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="E117">
-        <v>48.72000122070312</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="F117">
-        <v>1607600</v>
+        <v>1014200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>47.75</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="B118">
-        <v>49.68000030517578</v>
+        <v>47.38999938964844</v>
       </c>
       <c r="C118">
-        <v>47.59999847412109</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="D118">
-        <v>48.84999847412109</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="E118">
-        <v>48.84999847412109</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="F118">
-        <v>778900</v>
+        <v>1643700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>50.9900016784668</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="B119">
-        <v>52.40999984741211</v>
+        <v>43.77000045776367</v>
       </c>
       <c r="C119">
-        <v>47.02000045776367</v>
+        <v>41.38999938964844</v>
       </c>
       <c r="D119">
-        <v>47.04999923706055</v>
+        <v>42.34000015258789</v>
       </c>
       <c r="E119">
-        <v>47.04999923706055</v>
+        <v>42.34000015258789</v>
       </c>
       <c r="F119">
-        <v>1854600</v>
+        <v>1656400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>47.61999893188477</v>
+        <v>42.86999893188477</v>
       </c>
       <c r="B120">
-        <v>48.29000091552734</v>
+        <v>44.47000122070312</v>
       </c>
       <c r="C120">
-        <v>44.2599983215332</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="D120">
-        <v>48.20000076293945</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="E120">
-        <v>48.20000076293945</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="F120">
-        <v>1887400</v>
+        <v>1294300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>47.56000137329102</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="B121">
-        <v>49.06999969482422</v>
+        <v>43.33000183105469</v>
       </c>
       <c r="C121">
-        <v>46.18000030517578</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D121">
-        <v>46.77999877929688</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="E121">
-        <v>46.77999877929688</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="F121">
-        <v>1435400</v>
+        <v>1117900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>48.06000137329102</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="B122">
-        <v>50.86999893188477</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="C122">
-        <v>44.83000183105469</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="D122">
-        <v>48.70999908447266</v>
+        <v>41.84999847412109</v>
       </c>
       <c r="E122">
-        <v>48.70999908447266</v>
+        <v>41.84999847412109</v>
       </c>
       <c r="F122">
-        <v>2525700</v>
+        <v>1466000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>47.27999877929688</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B123">
-        <v>47.93000030517578</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="C123">
-        <v>45.90000152587891</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="D123">
-        <v>46.93999862670898</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="E123">
-        <v>46.93999862670898</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="F123">
-        <v>1348400</v>
+        <v>2215800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>46.63000106811523</v>
+        <v>45.5</v>
       </c>
       <c r="B124">
-        <v>48.47000122070312</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="C124">
-        <v>46.22999954223633</v>
+        <v>45.2599983215332</v>
       </c>
       <c r="D124">
-        <v>48.08000183105469</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="E124">
-        <v>48.08000183105469</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="F124">
-        <v>1663300</v>
+        <v>1608900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>44.81000137329102</v>
+        <v>46.08000183105469</v>
       </c>
       <c r="B125">
-        <v>45.88000106811523</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="C125">
-        <v>42.86999893188477</v>
+        <v>42.88000106811523</v>
       </c>
       <c r="D125">
-        <v>43.70999908447266</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="E125">
-        <v>43.70999908447266</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="F125">
-        <v>1832900</v>
+        <v>1352100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>44.81999969482422</v>
+        <v>44.5</v>
       </c>
       <c r="B126">
-        <v>46.15000152587891</v>
+        <v>45.97999954223633</v>
       </c>
       <c r="C126">
-        <v>44.16999816894531</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D126">
-        <v>45.59999847412109</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="E126">
-        <v>45.59999847412109</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="F126">
-        <v>1663200</v>
+        <v>869900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>46.5</v>
+        <v>43.5</v>
       </c>
       <c r="B127">
-        <v>48.18000030517578</v>
+        <v>46.91999816894531</v>
       </c>
       <c r="C127">
-        <v>46.09999847412109</v>
+        <v>43.4900016784668</v>
       </c>
       <c r="D127">
-        <v>46.56000137329102</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="E127">
-        <v>46.56000137329102</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="F127">
-        <v>1014200</v>
+        <v>843100</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>47.36999893188477</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="B128">
-        <v>47.38999938964844</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="C128">
-        <v>43.70000076293945</v>
+        <v>46.56999969482422</v>
       </c>
       <c r="D128">
-        <v>43.81999969482422</v>
+        <v>46.72999954223633</v>
       </c>
       <c r="E128">
-        <v>43.81999969482422</v>
+        <v>46.72999954223633</v>
       </c>
       <c r="F128">
-        <v>1643700</v>
+        <v>1091700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>43.70000076293945</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="B129">
-        <v>43.77000045776367</v>
+        <v>47.75</v>
       </c>
       <c r="C129">
-        <v>41.38999938964844</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="D129">
-        <v>42.34000015258789</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E129">
-        <v>42.34000015258789</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F129">
-        <v>1655200</v>
+        <v>1341300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/JKS/JKS_HighLow.xlsx
+++ b/Stocks/JKS/JKS_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>34.77999877929688</v>
+        <v>39.5</v>
       </c>
       <c r="B2">
-        <v>38.79999923706055</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="C2">
-        <v>34.63999938964844</v>
+        <v>36.66999816894531</v>
       </c>
       <c r="D2">
-        <v>38.65000152587891</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="E2">
-        <v>38.65000152587891</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="F2">
-        <v>7132400</v>
+        <v>2650200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>36.65999984741211</v>
+        <v>36.95000076293945</v>
       </c>
       <c r="B3">
-        <v>38.02000045776367</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="C3">
-        <v>35.5</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="D3">
-        <v>36.36000061035156</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="E3">
-        <v>36.36000061035156</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="F3">
-        <v>3746200</v>
+        <v>1921500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>35.86000061035156</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="B4">
-        <v>36.43999862670898</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="C4">
-        <v>34.45000076293945</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="D4">
-        <v>36.16999816894531</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="E4">
-        <v>36.16999816894531</v>
+        <v>38.20999908447266</v>
       </c>
       <c r="F4">
-        <v>2034600</v>
+        <v>1244100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>36.47000122070312</v>
+        <v>39.86000061035156</v>
       </c>
       <c r="B5">
-        <v>38.20000076293945</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="C5">
-        <v>35.68999862670898</v>
+        <v>37.9900016784668</v>
       </c>
       <c r="D5">
-        <v>36.56000137329102</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="E5">
-        <v>36.56000137329102</v>
+        <v>39.65000152587891</v>
       </c>
       <c r="F5">
-        <v>1627200</v>
+        <v>1941400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>37</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="B6">
-        <v>37.04999923706055</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="C6">
-        <v>34.70999908447266</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="D6">
-        <v>35.81000137329102</v>
+        <v>39.22999954223633</v>
       </c>
       <c r="E6">
-        <v>35.81000137329102</v>
+        <v>39.22999954223633</v>
       </c>
       <c r="F6">
-        <v>1606600</v>
+        <v>1459200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>36.52999877929688</v>
+        <v>38.61999893188477</v>
       </c>
       <c r="B7">
-        <v>38.13999938964844</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="C7">
-        <v>35.72000122070312</v>
+        <v>38.22000122070312</v>
       </c>
       <c r="D7">
-        <v>37.88000106811523</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="E7">
-        <v>37.88000106811523</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="F7">
-        <v>3284800</v>
+        <v>1438000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>39.5</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="B8">
         <v>40.34999847412109</v>
       </c>
       <c r="C8">
-        <v>36.66999816894531</v>
+        <v>39.27999877929688</v>
       </c>
       <c r="D8">
-        <v>37.0099983215332</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="E8">
-        <v>37.0099983215332</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="F8">
-        <v>2650200</v>
+        <v>792900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>36.95000076293945</v>
+        <v>39.36000061035156</v>
       </c>
       <c r="B9">
-        <v>38.70000076293945</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="C9">
-        <v>36.20000076293945</v>
+        <v>38.22999954223633</v>
       </c>
       <c r="D9">
-        <v>36.97000122070312</v>
+        <v>38.7599983215332</v>
       </c>
       <c r="E9">
-        <v>36.97000122070312</v>
+        <v>38.7599983215332</v>
       </c>
       <c r="F9">
-        <v>1921500</v>
+        <v>963200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>36.15999984741211</v>
+        <v>39.54000091552734</v>
       </c>
       <c r="B10">
-        <v>38.20999908447266</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="C10">
-        <v>35.58000183105469</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="D10">
-        <v>38.20999908447266</v>
+        <v>37.93000030517578</v>
       </c>
       <c r="E10">
-        <v>38.20999908447266</v>
+        <v>37.93000030517578</v>
       </c>
       <c r="F10">
-        <v>1244100</v>
+        <v>853700</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>39.86000061035156</v>
+        <v>36.79999923706055</v>
       </c>
       <c r="B11">
-        <v>40.34999847412109</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="C11">
-        <v>37.9900016784668</v>
+        <v>36.52000045776367</v>
       </c>
       <c r="D11">
-        <v>39.65000152587891</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="E11">
-        <v>39.65000152587891</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="F11">
-        <v>1941400</v>
+        <v>800900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>39.68000030517578</v>
+        <v>37.18000030517578</v>
       </c>
       <c r="B12">
-        <v>40.43999862670898</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="C12">
-        <v>38.63000106811523</v>
+        <v>36.31000137329102</v>
       </c>
       <c r="D12">
-        <v>39.22999954223633</v>
+        <v>36.88999938964844</v>
       </c>
       <c r="E12">
-        <v>39.22999954223633</v>
+        <v>36.88999938964844</v>
       </c>
       <c r="F12">
-        <v>1459200</v>
+        <v>779000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>38.61999893188477</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="B13">
-        <v>40.09999847412109</v>
+        <v>35.36000061035156</v>
       </c>
       <c r="C13">
-        <v>38.22000122070312</v>
+        <v>33.66999816894531</v>
       </c>
       <c r="D13">
-        <v>39.95000076293945</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="E13">
-        <v>39.95000076293945</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="F13">
-        <v>1438000</v>
+        <v>1555600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>40.20999908447266</v>
+        <v>35.83000183105469</v>
       </c>
       <c r="B14">
-        <v>40.34999847412109</v>
+        <v>35.91999816894531</v>
       </c>
       <c r="C14">
-        <v>39.27999877929688</v>
+        <v>33.2400016784668</v>
       </c>
       <c r="D14">
-        <v>39.65999984741211</v>
+        <v>33.52000045776367</v>
       </c>
       <c r="E14">
-        <v>39.65999984741211</v>
+        <v>33.52000045776367</v>
       </c>
       <c r="F14">
-        <v>792900</v>
+        <v>1502900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>39.36000061035156</v>
+        <v>32.68000030517578</v>
       </c>
       <c r="B15">
-        <v>39.4900016784668</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="C15">
-        <v>38.22999954223633</v>
+        <v>31.25</v>
       </c>
       <c r="D15">
-        <v>38.7599983215332</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="E15">
-        <v>38.7599983215332</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="F15">
-        <v>963200</v>
+        <v>2228000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>39.54000091552734</v>
+        <v>32.47000122070312</v>
       </c>
       <c r="B16">
-        <v>39.65999984741211</v>
+        <v>33.54999923706055</v>
       </c>
       <c r="C16">
-        <v>37.40000152587891</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D16">
-        <v>37.93000030517578</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="E16">
-        <v>37.93000030517578</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="F16">
-        <v>853700</v>
+        <v>934300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>36.79999923706055</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="B17">
-        <v>37.86999893188477</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="C17">
-        <v>36.52000045776367</v>
+        <v>30.25</v>
       </c>
       <c r="D17">
-        <v>36.95999908447266</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="E17">
-        <v>36.95999908447266</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="F17">
-        <v>800900</v>
+        <v>1502300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>37.18000030517578</v>
+        <v>29.03000068664551</v>
       </c>
       <c r="B18">
-        <v>37.7400016784668</v>
+        <v>31.68000030517578</v>
       </c>
       <c r="C18">
-        <v>36.31000137329102</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="D18">
-        <v>36.88999938964844</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="E18">
-        <v>36.88999938964844</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="F18">
-        <v>779000</v>
+        <v>1774400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>34.9900016784668</v>
+        <v>31.14999961853027</v>
       </c>
       <c r="B19">
-        <v>35.36000061035156</v>
+        <v>31.88999938964844</v>
       </c>
       <c r="C19">
-        <v>33.66999816894531</v>
+        <v>30.14999961853027</v>
       </c>
       <c r="D19">
-        <v>34.15999984741211</v>
+        <v>30.51000022888184</v>
       </c>
       <c r="E19">
-        <v>34.15999984741211</v>
+        <v>30.51000022888184</v>
       </c>
       <c r="F19">
-        <v>1555600</v>
+        <v>1671600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>35.83000183105469</v>
+        <v>30.90999984741211</v>
       </c>
       <c r="B20">
-        <v>35.91999816894531</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="C20">
-        <v>33.2400016784668</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="D20">
-        <v>33.52000045776367</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="E20">
-        <v>33.52000045776367</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="F20">
-        <v>1502900</v>
+        <v>2088000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>32.68000030517578</v>
+        <v>31.3700008392334</v>
       </c>
       <c r="B21">
-        <v>32.90999984741211</v>
+        <v>32.04000091552734</v>
       </c>
       <c r="C21">
-        <v>31.25</v>
+        <v>30.95000076293945</v>
       </c>
       <c r="D21">
-        <v>31.98999977111816</v>
+        <v>31.46999931335449</v>
       </c>
       <c r="E21">
-        <v>31.98999977111816</v>
+        <v>31.46999931335449</v>
       </c>
       <c r="F21">
-        <v>2228000</v>
+        <v>926700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>32.47000122070312</v>
+        <v>31.52000045776367</v>
       </c>
       <c r="B22">
-        <v>33.54999923706055</v>
+        <v>31.52000045776367</v>
       </c>
       <c r="C22">
-        <v>32.20999908447266</v>
+        <v>29.78000068664551</v>
       </c>
       <c r="D22">
-        <v>32.40999984741211</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="E22">
-        <v>32.40999984741211</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="F22">
-        <v>934300</v>
+        <v>1736900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>32.27999877929688</v>
+        <v>30.59000015258789</v>
       </c>
       <c r="B23">
-        <v>32.27999877929688</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="C23">
-        <v>30.25</v>
+        <v>28.45000076293945</v>
       </c>
       <c r="D23">
-        <v>30.26000022888184</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="E23">
-        <v>30.26000022888184</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="F23">
-        <v>1502300</v>
+        <v>1410300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>29.03000068664551</v>
+        <v>29.95999908447266</v>
       </c>
       <c r="B24">
-        <v>31.68000030517578</v>
+        <v>31.92000007629395</v>
       </c>
       <c r="C24">
-        <v>28.38999938964844</v>
+        <v>29.75</v>
       </c>
       <c r="D24">
-        <v>31.3799991607666</v>
+        <v>31.70999908447266</v>
       </c>
       <c r="E24">
-        <v>31.3799991607666</v>
+        <v>31.70999908447266</v>
       </c>
       <c r="F24">
-        <v>1774400</v>
+        <v>1022000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>31.14999961853027</v>
+        <v>32.56999969482422</v>
       </c>
       <c r="B25">
-        <v>31.88999938964844</v>
+        <v>34.45999908447266</v>
       </c>
       <c r="C25">
-        <v>30.14999961853027</v>
+        <v>32.45999908447266</v>
       </c>
       <c r="D25">
-        <v>30.51000022888184</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="E25">
-        <v>30.51000022888184</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="F25">
-        <v>1671600</v>
+        <v>1716300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>30.90999984741211</v>
+        <v>34.54999923706055</v>
       </c>
       <c r="B26">
-        <v>31.35000038146973</v>
+        <v>35.2400016784668</v>
       </c>
       <c r="C26">
-        <v>29.52000045776367</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="D26">
-        <v>30.70999908447266</v>
+        <v>34.09000015258789</v>
       </c>
       <c r="E26">
-        <v>30.70999908447266</v>
+        <v>34.09000015258789</v>
       </c>
       <c r="F26">
-        <v>2088000</v>
+        <v>1284200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>31.3700008392334</v>
+        <v>34.43999862670898</v>
       </c>
       <c r="B27">
-        <v>32.04000091552734</v>
+        <v>34.43999862670898</v>
       </c>
       <c r="C27">
-        <v>30.95000076293945</v>
+        <v>32.83000183105469</v>
       </c>
       <c r="D27">
-        <v>31.46999931335449</v>
+        <v>33.27000045776367</v>
       </c>
       <c r="E27">
-        <v>31.46999931335449</v>
+        <v>33.27000045776367</v>
       </c>
       <c r="F27">
-        <v>926700</v>
+        <v>899800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>31.52000045776367</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="B28">
-        <v>31.52000045776367</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="C28">
-        <v>29.78000068664551</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="D28">
-        <v>30.44000053405762</v>
+        <v>33.11999893188477</v>
       </c>
       <c r="E28">
-        <v>30.44000053405762</v>
+        <v>33.11999893188477</v>
       </c>
       <c r="F28">
-        <v>1736900</v>
+        <v>676400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>30.59000015258789</v>
+        <v>33.29000091552734</v>
       </c>
       <c r="B29">
-        <v>31.54999923706055</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="C29">
-        <v>28.45000076293945</v>
+        <v>33.20999908447266</v>
       </c>
       <c r="D29">
-        <v>30.71999931335449</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="E29">
-        <v>30.71999931335449</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="F29">
-        <v>1410300</v>
+        <v>1192800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>29.95999908447266</v>
+        <v>35.61000061035156</v>
       </c>
       <c r="B30">
-        <v>31.92000007629395</v>
+        <v>36.36000061035156</v>
       </c>
       <c r="C30">
-        <v>29.75</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="D30">
-        <v>31.70999908447266</v>
+        <v>35.34000015258789</v>
       </c>
       <c r="E30">
-        <v>31.70999908447266</v>
+        <v>35.34000015258789</v>
       </c>
       <c r="F30">
-        <v>1022000</v>
+        <v>1197600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>32.56999969482422</v>
+        <v>35.90999984741211</v>
       </c>
       <c r="B31">
-        <v>34.45999908447266</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="C31">
-        <v>32.45999908447266</v>
+        <v>35.68000030517578</v>
       </c>
       <c r="D31">
-        <v>34.16999816894531</v>
+        <v>36.61000061035156</v>
       </c>
       <c r="E31">
-        <v>34.16999816894531</v>
+        <v>36.61000061035156</v>
       </c>
       <c r="F31">
-        <v>1716300</v>
+        <v>1418100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>34.54999923706055</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="B32">
-        <v>35.2400016784668</v>
+        <v>39.95000076293945</v>
       </c>
       <c r="C32">
-        <v>33.40999984741211</v>
+        <v>37.20000076293945</v>
       </c>
       <c r="D32">
-        <v>34.09000015258789</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="E32">
-        <v>34.09000015258789</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="F32">
-        <v>1284200</v>
+        <v>2311000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>34.43999862670898</v>
+        <v>39.25</v>
       </c>
       <c r="B33">
-        <v>34.43999862670898</v>
+        <v>42.16999816894531</v>
       </c>
       <c r="C33">
-        <v>32.83000183105469</v>
+        <v>38.56999969482422</v>
       </c>
       <c r="D33">
-        <v>33.27000045776367</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="E33">
-        <v>33.27000045776367</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="F33">
-        <v>899800</v>
+        <v>1912000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>33.61999893188477</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B34">
-        <v>33.97999954223633</v>
+        <v>42.33000183105469</v>
       </c>
       <c r="C34">
-        <v>32.65000152587891</v>
+        <v>39.91999816894531</v>
       </c>
       <c r="D34">
-        <v>33.11999893188477</v>
+        <v>40.11000061035156</v>
       </c>
       <c r="E34">
-        <v>33.11999893188477</v>
+        <v>40.11000061035156</v>
       </c>
       <c r="F34">
-        <v>676400</v>
+        <v>1549100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>33.29000091552734</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="B35">
-        <v>35.97999954223633</v>
+        <v>41.9900016784668</v>
       </c>
       <c r="C35">
-        <v>33.20999908447266</v>
+        <v>39.81000137329102</v>
       </c>
       <c r="D35">
-        <v>35.97999954223633</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E35">
-        <v>35.97999954223633</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F35">
-        <v>1192800</v>
+        <v>1166500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>35.61000061035156</v>
+        <v>40.70999908447266</v>
       </c>
       <c r="B36">
-        <v>36.36000061035156</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="C36">
-        <v>35.15999984741211</v>
+        <v>38.02000045776367</v>
       </c>
       <c r="D36">
-        <v>35.34000015258789</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="E36">
-        <v>35.34000015258789</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="F36">
-        <v>1197600</v>
+        <v>1639700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>35.90999984741211</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="B37">
-        <v>36.93999862670898</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="C37">
-        <v>35.68000030517578</v>
+        <v>36.84999847412109</v>
       </c>
       <c r="D37">
-        <v>36.61000061035156</v>
+        <v>39.11000061035156</v>
       </c>
       <c r="E37">
-        <v>36.61000061035156</v>
+        <v>39.11000061035156</v>
       </c>
       <c r="F37">
-        <v>1418100</v>
+        <v>2310500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>37.93999862670898</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>39.95000076293945</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="C38">
-        <v>37.20000076293945</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>39.41999816894531</v>
+        <v>40.25</v>
       </c>
       <c r="E38">
-        <v>39.41999816894531</v>
+        <v>40.25</v>
       </c>
       <c r="F38">
-        <v>2311000</v>
+        <v>1971900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>39.25</v>
+        <v>41.4900016784668</v>
       </c>
       <c r="B39">
-        <v>42.16999816894531</v>
+        <v>43.09000015258789</v>
       </c>
       <c r="C39">
-        <v>38.56999969482422</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="D39">
-        <v>41.83000183105469</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E39">
-        <v>41.83000183105469</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F39">
-        <v>1912000</v>
+        <v>3366900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>40.45000076293945</v>
+        <v>42.02000045776367</v>
       </c>
       <c r="B40">
-        <v>42.33000183105469</v>
+        <v>47.09999847412109</v>
       </c>
       <c r="C40">
-        <v>39.91999816894531</v>
+        <v>41.18999862670898</v>
       </c>
       <c r="D40">
-        <v>40.11000061035156</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="E40">
-        <v>40.11000061035156</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="F40">
-        <v>1549100</v>
+        <v>4309900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>40.56000137329102</v>
+        <v>46.41999816894531</v>
       </c>
       <c r="B41">
-        <v>41.9900016784668</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="C41">
-        <v>39.81000137329102</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="D41">
-        <v>41.20999908447266</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="E41">
-        <v>41.20999908447266</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="F41">
-        <v>1166500</v>
+        <v>1947900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>40.70999908447266</v>
+        <v>45.29999923706055</v>
       </c>
       <c r="B42">
-        <v>41.20999908447266</v>
+        <v>45.58000183105469</v>
       </c>
       <c r="C42">
-        <v>38.02000045776367</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="D42">
-        <v>38.38999938964844</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="E42">
-        <v>38.38999938964844</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="F42">
-        <v>1639700</v>
+        <v>3193600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>39.29999923706055</v>
+        <v>40.91999816894531</v>
       </c>
       <c r="B43">
-        <v>39.29999923706055</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>36.84999847412109</v>
+        <v>39.38999938964844</v>
       </c>
       <c r="D43">
-        <v>39.11000061035156</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="E43">
-        <v>39.11000061035156</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="F43">
-        <v>2310500</v>
+        <v>1670900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>39</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="B44">
-        <v>41.93999862670898</v>
+        <v>41.7599983215332</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>39.52999877929688</v>
       </c>
       <c r="D44">
-        <v>40.25</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="E44">
-        <v>40.25</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="F44">
-        <v>1971900</v>
+        <v>1563400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>41.4900016784668</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="B45">
-        <v>43.09000015258789</v>
+        <v>40.70999908447266</v>
       </c>
       <c r="C45">
-        <v>40.70000076293945</v>
+        <v>38.34000015258789</v>
       </c>
       <c r="D45">
-        <v>41.20999908447266</v>
+        <v>39.34999847412109</v>
       </c>
       <c r="E45">
-        <v>41.20999908447266</v>
+        <v>39.34999847412109</v>
       </c>
       <c r="F45">
-        <v>3366900</v>
+        <v>1674000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>42.02000045776367</v>
+        <v>39.41999816894531</v>
       </c>
       <c r="B46">
-        <v>47.09999847412109</v>
+        <v>42.65999984741211</v>
       </c>
       <c r="C46">
-        <v>41.18999862670898</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="D46">
-        <v>46.20999908447266</v>
+        <v>41.25</v>
       </c>
       <c r="E46">
-        <v>46.20999908447266</v>
+        <v>41.25</v>
       </c>
       <c r="F46">
-        <v>4309900</v>
+        <v>2726700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>46.41999816894531</v>
+        <v>39.58000183105469</v>
       </c>
       <c r="B47">
-        <v>46.77999877929688</v>
+        <v>40.22999954223633</v>
       </c>
       <c r="C47">
-        <v>43.90999984741211</v>
+        <v>37.06000137329102</v>
       </c>
       <c r="D47">
-        <v>45.29999923706055</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="E47">
-        <v>45.29999923706055</v>
+        <v>37.13999938964844</v>
       </c>
       <c r="F47">
-        <v>1947900</v>
+        <v>3236100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>45.29999923706055</v>
+        <v>37.66999816894531</v>
       </c>
       <c r="B48">
-        <v>45.58000183105469</v>
+        <v>38.68999862670898</v>
       </c>
       <c r="C48">
-        <v>40.09999847412109</v>
+        <v>37.40999984741211</v>
       </c>
       <c r="D48">
-        <v>40.31000137329102</v>
+        <v>38.36999893188477</v>
       </c>
       <c r="E48">
-        <v>40.31000137329102</v>
+        <v>38.36999893188477</v>
       </c>
       <c r="F48">
-        <v>3193600</v>
+        <v>2146800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>40.91999816894531</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="B49">
-        <v>42</v>
+        <v>39.25</v>
       </c>
       <c r="C49">
-        <v>39.38999938964844</v>
+        <v>35.63999938964844</v>
       </c>
       <c r="D49">
-        <v>40.29999923706055</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="E49">
-        <v>40.29999923706055</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="F49">
-        <v>1670900</v>
+        <v>4380200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>39.81999969482422</v>
+        <v>36.95999908447266</v>
       </c>
       <c r="B50">
-        <v>41.7599983215332</v>
+        <v>43.06999969482422</v>
       </c>
       <c r="C50">
-        <v>39.52999877929688</v>
+        <v>36.70999908447266</v>
       </c>
       <c r="D50">
-        <v>39.95999908447266</v>
+        <v>43</v>
       </c>
       <c r="E50">
-        <v>39.95999908447266</v>
+        <v>43</v>
       </c>
       <c r="F50">
-        <v>1563400</v>
+        <v>5017600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>39.59999847412109</v>
+        <v>43.36000061035156</v>
       </c>
       <c r="B51">
-        <v>40.70999908447266</v>
+        <v>53.68999862670898</v>
       </c>
       <c r="C51">
-        <v>38.34000015258789</v>
+        <v>43.31999969482422</v>
       </c>
       <c r="D51">
-        <v>39.34999847412109</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="E51">
-        <v>39.34999847412109</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="F51">
-        <v>1674000</v>
+        <v>8419200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>39.41999816894531</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="B52">
-        <v>42.65999984741211</v>
+        <v>58.38999938964844</v>
       </c>
       <c r="C52">
-        <v>39.15000152587891</v>
+        <v>51.52999877929688</v>
       </c>
       <c r="D52">
-        <v>41.25</v>
+        <v>57.56000137329102</v>
       </c>
       <c r="E52">
-        <v>41.25</v>
+        <v>57.56000137329102</v>
       </c>
       <c r="F52">
-        <v>2726700</v>
+        <v>5996500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>39.58000183105469</v>
+        <v>54.93999862670898</v>
       </c>
       <c r="B53">
-        <v>40.22999954223633</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="C53">
-        <v>37.06000137329102</v>
+        <v>54.06000137329102</v>
       </c>
       <c r="D53">
-        <v>37.13999938964844</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="E53">
-        <v>37.13999938964844</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="F53">
-        <v>3236100</v>
+        <v>2806800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>37.66999816894531</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="B54">
-        <v>38.68999862670898</v>
+        <v>55.5</v>
       </c>
       <c r="C54">
-        <v>37.40999984741211</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="D54">
-        <v>38.36999893188477</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="E54">
-        <v>38.36999893188477</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="F54">
-        <v>2146800</v>
+        <v>2381000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>37.0099983215332</v>
+        <v>50.13999938964844</v>
       </c>
       <c r="B55">
-        <v>39.25</v>
+        <v>53.25</v>
       </c>
       <c r="C55">
-        <v>35.63999938964844</v>
+        <v>50.11999893188477</v>
       </c>
       <c r="D55">
-        <v>37.86000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E55">
-        <v>37.86000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F55">
-        <v>4380200</v>
+        <v>1884200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>36.95999908447266</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>43.06999969482422</v>
+        <v>54.45999908447266</v>
       </c>
       <c r="C56">
-        <v>36.70999908447266</v>
+        <v>48.79000091552734</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>54.34999847412109</v>
       </c>
       <c r="E56">
-        <v>43</v>
+        <v>54.34999847412109</v>
       </c>
       <c r="F56">
-        <v>5017600</v>
+        <v>2468600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>43.36000061035156</v>
+        <v>57.59000015258789</v>
       </c>
       <c r="B57">
-        <v>53.68999862670898</v>
+        <v>63.45999908447266</v>
       </c>
       <c r="C57">
-        <v>43.31999969482422</v>
+        <v>57.04000091552734</v>
       </c>
       <c r="D57">
-        <v>52.84999847412109</v>
+        <v>60.13999938964844</v>
       </c>
       <c r="E57">
-        <v>52.84999847412109</v>
+        <v>60.13999938964844</v>
       </c>
       <c r="F57">
-        <v>8419200</v>
+        <v>7720900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>51.61999893188477</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="B58">
-        <v>58.38999938964844</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="C58">
-        <v>51.52999877929688</v>
+        <v>55.34999847412109</v>
       </c>
       <c r="D58">
-        <v>57.56000137329102</v>
+        <v>58.79000091552734</v>
       </c>
       <c r="E58">
-        <v>57.56000137329102</v>
+        <v>58.79000091552734</v>
       </c>
       <c r="F58">
-        <v>5996500</v>
+        <v>2622500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>54.93999862670898</v>
+        <v>59.56000137329102</v>
       </c>
       <c r="B59">
-        <v>57.15000152587891</v>
+        <v>59.65999984741211</v>
       </c>
       <c r="C59">
-        <v>54.06000137329102</v>
+        <v>54.79000091552734</v>
       </c>
       <c r="D59">
-        <v>56.02000045776367</v>
+        <v>56.7599983215332</v>
       </c>
       <c r="E59">
-        <v>56.02000045776367</v>
+        <v>56.7599983215332</v>
       </c>
       <c r="F59">
-        <v>2806800</v>
+        <v>3107500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>55.13000106811523</v>
+        <v>57.79000091552734</v>
       </c>
       <c r="B60">
-        <v>55.5</v>
+        <v>62.52999877929688</v>
       </c>
       <c r="C60">
-        <v>51.20999908447266</v>
+        <v>57.15999984741211</v>
       </c>
       <c r="D60">
-        <v>52.06999969482422</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="E60">
-        <v>52.06999969482422</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="F60">
-        <v>2381000</v>
+        <v>2864300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>50.13999938964844</v>
+        <v>60.90999984741211</v>
       </c>
       <c r="B61">
-        <v>53.25</v>
+        <v>62.65000152587891</v>
       </c>
       <c r="C61">
-        <v>50.11999893188477</v>
+        <v>58.65999984741211</v>
       </c>
       <c r="D61">
-        <v>50.40000152587891</v>
+        <v>61.77999877929688</v>
       </c>
       <c r="E61">
-        <v>50.40000152587891</v>
+        <v>61.77999877929688</v>
       </c>
       <c r="F61">
-        <v>1884200</v>
+        <v>1809600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>50</v>
+        <v>61.68999862670898</v>
       </c>
       <c r="B62">
-        <v>54.45999908447266</v>
+        <v>61.75</v>
       </c>
       <c r="C62">
-        <v>48.79000091552734</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="D62">
-        <v>54.34999847412109</v>
+        <v>56.72000122070312</v>
       </c>
       <c r="E62">
-        <v>54.34999847412109</v>
+        <v>56.72000122070312</v>
       </c>
       <c r="F62">
-        <v>2468600</v>
+        <v>1539700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>57.59000015258789</v>
+        <v>59.93000030517578</v>
       </c>
       <c r="B63">
-        <v>63.45999908447266</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>57.04000091552734</v>
+        <v>58.63999938964844</v>
       </c>
       <c r="D63">
-        <v>60.13999938964844</v>
+        <v>60.2599983215332</v>
       </c>
       <c r="E63">
-        <v>60.13999938964844</v>
+        <v>60.2599983215332</v>
       </c>
       <c r="F63">
-        <v>7720900</v>
+        <v>3174800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>56.86000061035156</v>
+        <v>59.36999893188477</v>
       </c>
       <c r="B64">
-        <v>59.29999923706055</v>
+        <v>59.88999938964844</v>
       </c>
       <c r="C64">
-        <v>55.34999847412109</v>
+        <v>56.18000030517578</v>
       </c>
       <c r="D64">
-        <v>58.79000091552734</v>
+        <v>58</v>
       </c>
       <c r="E64">
-        <v>58.79000091552734</v>
+        <v>58</v>
       </c>
       <c r="F64">
-        <v>2622500</v>
+        <v>1934300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>59.56000137329102</v>
+        <v>56.02999877929688</v>
       </c>
       <c r="B65">
-        <v>59.65999984741211</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>54.79000091552734</v>
+        <v>51.36000061035156</v>
       </c>
       <c r="D65">
-        <v>56.7599983215332</v>
+        <v>54.20999908447266</v>
       </c>
       <c r="E65">
-        <v>56.7599983215332</v>
+        <v>54.20999908447266</v>
       </c>
       <c r="F65">
-        <v>3107500</v>
+        <v>3061900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>57.79000091552734</v>
+        <v>54.66999816894531</v>
       </c>
       <c r="B66">
-        <v>62.52999877929688</v>
+        <v>56.77000045776367</v>
       </c>
       <c r="C66">
-        <v>57.15999984741211</v>
+        <v>53.34999847412109</v>
       </c>
       <c r="D66">
-        <v>61.90000152587891</v>
+        <v>56.18999862670898</v>
       </c>
       <c r="E66">
-        <v>61.90000152587891</v>
+        <v>56.18999862670898</v>
       </c>
       <c r="F66">
-        <v>2864300</v>
+        <v>1207400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>60.90999984741211</v>
+        <v>57.47000122070312</v>
       </c>
       <c r="B67">
-        <v>62.65000152587891</v>
+        <v>61.86999893188477</v>
       </c>
       <c r="C67">
-        <v>58.65999984741211</v>
+        <v>57.40000152587891</v>
       </c>
       <c r="D67">
-        <v>61.77999877929688</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="E67">
-        <v>61.77999877929688</v>
+        <v>61.56000137329102</v>
       </c>
       <c r="F67">
-        <v>1809600</v>
+        <v>2417600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>61.68999862670898</v>
+        <v>62.34000015258789</v>
       </c>
       <c r="B68">
-        <v>61.75</v>
+        <v>64.76000213623047</v>
       </c>
       <c r="C68">
-        <v>56.70000076293945</v>
+        <v>59.40999984741211</v>
       </c>
       <c r="D68">
-        <v>56.72000122070312</v>
+        <v>60.88999938964844</v>
       </c>
       <c r="E68">
-        <v>56.72000122070312</v>
+        <v>60.88999938964844</v>
       </c>
       <c r="F68">
-        <v>1539700</v>
+        <v>2135300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>59.93000030517578</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="B69">
-        <v>63</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="C69">
-        <v>58.63999938964844</v>
+        <v>54.68000030517578</v>
       </c>
       <c r="D69">
-        <v>60.2599983215332</v>
+        <v>56.75</v>
       </c>
       <c r="E69">
-        <v>60.2599983215332</v>
+        <v>56.75</v>
       </c>
       <c r="F69">
-        <v>3174800</v>
+        <v>2112500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>59.36999893188477</v>
+        <v>54.5</v>
       </c>
       <c r="B70">
-        <v>59.88999938964844</v>
+        <v>57.40000152587891</v>
       </c>
       <c r="C70">
-        <v>56.18000030517578</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>58</v>
+        <v>53.66999816894531</v>
       </c>
       <c r="E70">
-        <v>58</v>
+        <v>53.66999816894531</v>
       </c>
       <c r="F70">
-        <v>1934300</v>
+        <v>1545300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>56.02999877929688</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="B71">
-        <v>57</v>
+        <v>51.5</v>
       </c>
       <c r="C71">
-        <v>51.36000061035156</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="D71">
-        <v>54.20999908447266</v>
+        <v>46.2400016784668</v>
       </c>
       <c r="E71">
-        <v>54.20999908447266</v>
+        <v>46.2400016784668</v>
       </c>
       <c r="F71">
-        <v>3061900</v>
+        <v>4865900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>54.66999816894531</v>
+        <v>48.59000015258789</v>
       </c>
       <c r="B72">
-        <v>56.77000045776367</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="C72">
-        <v>53.34999847412109</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="D72">
-        <v>56.18999862670898</v>
+        <v>53.27999877929688</v>
       </c>
       <c r="E72">
-        <v>56.18999862670898</v>
+        <v>53.27999877929688</v>
       </c>
       <c r="F72">
-        <v>1207400</v>
+        <v>3301200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>57.47000122070312</v>
+        <v>53.04999923706055</v>
       </c>
       <c r="B73">
-        <v>61.86999893188477</v>
+        <v>55.02000045776367</v>
       </c>
       <c r="C73">
-        <v>57.40000152587891</v>
+        <v>51.0099983215332</v>
       </c>
       <c r="D73">
-        <v>61.56000137329102</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="E73">
-        <v>61.56000137329102</v>
+        <v>52.95000076293945</v>
       </c>
       <c r="F73">
-        <v>2417600</v>
+        <v>1590700</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>62.34000015258789</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="B74">
-        <v>64.76000213623047</v>
+        <v>55.86000061035156</v>
       </c>
       <c r="C74">
-        <v>59.40999984741211</v>
+        <v>51.27999877929688</v>
       </c>
       <c r="D74">
-        <v>60.88999938964844</v>
+        <v>53.88999938964844</v>
       </c>
       <c r="E74">
-        <v>60.88999938964844</v>
+        <v>53.88999938964844</v>
       </c>
       <c r="F74">
-        <v>2135300</v>
+        <v>1019900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>58.61999893188477</v>
+        <v>55.06000137329102</v>
       </c>
       <c r="B75">
-        <v>58.61999893188477</v>
+        <v>56.25</v>
       </c>
       <c r="C75">
-        <v>54.68000030517578</v>
+        <v>54.15999984741211</v>
       </c>
       <c r="D75">
-        <v>56.75</v>
+        <v>54.75</v>
       </c>
       <c r="E75">
-        <v>56.75</v>
+        <v>54.75</v>
       </c>
       <c r="F75">
-        <v>2112500</v>
+        <v>825100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>54.5</v>
+        <v>54.95000076293945</v>
       </c>
       <c r="B76">
-        <v>57.40000152587891</v>
+        <v>57.11000061035156</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>53.95000076293945</v>
       </c>
       <c r="D76">
-        <v>53.66999816894531</v>
+        <v>57.09000015258789</v>
       </c>
       <c r="E76">
-        <v>53.66999816894531</v>
+        <v>57.09000015258789</v>
       </c>
       <c r="F76">
-        <v>1545300</v>
+        <v>1109900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>50.20000076293945</v>
+        <v>58.36999893188477</v>
       </c>
       <c r="B77">
-        <v>51.5</v>
+        <v>58.63000106811523</v>
       </c>
       <c r="C77">
-        <v>44.2599983215332</v>
+        <v>55.45999908447266</v>
       </c>
       <c r="D77">
-        <v>46.2400016784668</v>
+        <v>55.90999984741211</v>
       </c>
       <c r="E77">
-        <v>46.2400016784668</v>
+        <v>55.90999984741211</v>
       </c>
       <c r="F77">
-        <v>4865900</v>
+        <v>1115800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>48.59000015258789</v>
+        <v>55.45999908447266</v>
       </c>
       <c r="B78">
-        <v>54.40000152587891</v>
+        <v>57.63000106811523</v>
       </c>
       <c r="C78">
-        <v>47.20000076293945</v>
+        <v>55.20000076293945</v>
       </c>
       <c r="D78">
-        <v>53.27999877929688</v>
+        <v>55.68000030517578</v>
       </c>
       <c r="E78">
-        <v>53.27999877929688</v>
+        <v>55.68000030517578</v>
       </c>
       <c r="F78">
-        <v>3301200</v>
+        <v>700500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>53.04999923706055</v>
+        <v>55.70000076293945</v>
       </c>
       <c r="B79">
-        <v>55.02000045776367</v>
+        <v>56.93000030517578</v>
       </c>
       <c r="C79">
-        <v>51.0099983215332</v>
+        <v>54.27000045776367</v>
       </c>
       <c r="D79">
-        <v>52.95000076293945</v>
+        <v>55.18000030517578</v>
       </c>
       <c r="E79">
-        <v>52.95000076293945</v>
+        <v>55.18000030517578</v>
       </c>
       <c r="F79">
-        <v>1590700</v>
+        <v>976700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>51.79999923706055</v>
+        <v>55.27999877929688</v>
       </c>
       <c r="B80">
-        <v>55.86000061035156</v>
+        <v>58.59000015258789</v>
       </c>
       <c r="C80">
-        <v>51.27999877929688</v>
+        <v>54.08000183105469</v>
       </c>
       <c r="D80">
-        <v>53.88999938964844</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="E80">
-        <v>53.88999938964844</v>
+        <v>58.31000137329102</v>
       </c>
       <c r="F80">
-        <v>1019900</v>
+        <v>912500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>55.06000137329102</v>
+        <v>59.52000045776367</v>
       </c>
       <c r="B81">
-        <v>56.25</v>
+        <v>61.13999938964844</v>
       </c>
       <c r="C81">
-        <v>54.15999984741211</v>
+        <v>58.11000061035156</v>
       </c>
       <c r="D81">
-        <v>54.75</v>
+        <v>59.43000030517578</v>
       </c>
       <c r="E81">
-        <v>54.75</v>
+        <v>59.43000030517578</v>
       </c>
       <c r="F81">
-        <v>825100</v>
+        <v>1681500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>54.95000076293945</v>
+        <v>59.56999969482422</v>
       </c>
       <c r="B82">
-        <v>57.11000061035156</v>
+        <v>59.56999969482422</v>
       </c>
       <c r="C82">
-        <v>53.95000076293945</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="D82">
-        <v>57.09000015258789</v>
+        <v>56</v>
       </c>
       <c r="E82">
-        <v>57.09000015258789</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>1109900</v>
+        <v>2232800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>58.36999893188477</v>
+        <v>54.93000030517578</v>
       </c>
       <c r="B83">
-        <v>58.63000106811523</v>
+        <v>57.45999908447266</v>
       </c>
       <c r="C83">
-        <v>55.45999908447266</v>
+        <v>52.90999984741211</v>
       </c>
       <c r="D83">
-        <v>55.90999984741211</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="E83">
-        <v>55.90999984741211</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="F83">
-        <v>1115800</v>
+        <v>1505100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>55.45999908447266</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B84">
-        <v>57.63000106811523</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C84">
-        <v>55.20000076293945</v>
+        <v>45.22000122070312</v>
       </c>
       <c r="D84">
-        <v>55.68000030517578</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="E84">
-        <v>55.68000030517578</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="F84">
-        <v>700500</v>
+        <v>3793000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>55.70000076293945</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="B85">
-        <v>56.93000030517578</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C85">
-        <v>54.27000045776367</v>
+        <v>43.34000015258789</v>
       </c>
       <c r="D85">
-        <v>55.18000030517578</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E85">
-        <v>55.18000030517578</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F85">
-        <v>976700</v>
+        <v>3227900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>55.27999877929688</v>
+        <v>42.04999923706055</v>
       </c>
       <c r="B86">
-        <v>58.59000015258789</v>
+        <v>42.70999908447266</v>
       </c>
       <c r="C86">
-        <v>54.08000183105469</v>
+        <v>40</v>
       </c>
       <c r="D86">
-        <v>58.31000137329102</v>
+        <v>41</v>
       </c>
       <c r="E86">
-        <v>58.31000137329102</v>
+        <v>41</v>
       </c>
       <c r="F86">
-        <v>912500</v>
+        <v>2697000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>59.52000045776367</v>
+        <v>43.13000106811523</v>
       </c>
       <c r="B87">
-        <v>61.13999938964844</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="C87">
-        <v>58.11000061035156</v>
+        <v>40.88000106811523</v>
       </c>
       <c r="D87">
-        <v>59.43000030517578</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="E87">
-        <v>59.43000030517578</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="F87">
-        <v>1681500</v>
+        <v>2322500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>59.56999969482422</v>
+        <v>39.75</v>
       </c>
       <c r="B88">
-        <v>59.56999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="C88">
-        <v>54.56000137329102</v>
+        <v>37.31999969482422</v>
       </c>
       <c r="D88">
-        <v>56</v>
+        <v>37.47999954223633</v>
       </c>
       <c r="E88">
-        <v>56</v>
+        <v>37.47999954223633</v>
       </c>
       <c r="F88">
-        <v>2232800</v>
+        <v>2735500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>54.93000030517578</v>
+        <v>38.97000122070312</v>
       </c>
       <c r="B89">
-        <v>57.45999908447266</v>
+        <v>41.06999969482422</v>
       </c>
       <c r="C89">
-        <v>52.90999984741211</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D89">
-        <v>53.36000061035156</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="E89">
-        <v>53.36000061035156</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="F89">
-        <v>1505100</v>
+        <v>2525100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>53.93000030517578</v>
+        <v>41.15000152587891</v>
       </c>
       <c r="B90">
-        <v>53.93000030517578</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="C90">
-        <v>45.22000122070312</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="D90">
-        <v>45.7400016784668</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="E90">
-        <v>45.7400016784668</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="F90">
-        <v>3793000</v>
+        <v>1859000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>46.5099983215332</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B91">
-        <v>46.66999816894531</v>
+        <v>44.38999938964844</v>
       </c>
       <c r="C91">
-        <v>43.34000015258789</v>
+        <v>42.2599983215332</v>
       </c>
       <c r="D91">
-        <v>43.59999847412109</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="E91">
-        <v>43.59999847412109</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="F91">
-        <v>3227900</v>
+        <v>1978100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>42.04999923706055</v>
+        <v>45.18000030517578</v>
       </c>
       <c r="B92">
-        <v>42.70999908447266</v>
+        <v>45.34999847412109</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>42.63000106811523</v>
       </c>
       <c r="D92">
-        <v>41</v>
+        <v>45.22999954223633</v>
       </c>
       <c r="E92">
-        <v>41</v>
+        <v>45.22999954223633</v>
       </c>
       <c r="F92">
-        <v>2697000</v>
+        <v>1562000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>43.13000106811523</v>
+        <v>43.31999969482422</v>
       </c>
       <c r="B93">
-        <v>43.20000076293945</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="C93">
-        <v>40.88000106811523</v>
+        <v>43.11000061035156</v>
       </c>
       <c r="D93">
-        <v>41.20999908447266</v>
+        <v>44.09999847412109</v>
       </c>
       <c r="E93">
-        <v>41.20999908447266</v>
+        <v>44.09999847412109</v>
       </c>
       <c r="F93">
-        <v>2322500</v>
+        <v>939200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>39.75</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="B94">
-        <v>40.27999877929688</v>
+        <v>45.08000183105469</v>
       </c>
       <c r="C94">
-        <v>37.31999969482422</v>
+        <v>43.41999816894531</v>
       </c>
       <c r="D94">
-        <v>37.47999954223633</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="E94">
-        <v>37.47999954223633</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="F94">
-        <v>2735500</v>
+        <v>1380100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>38.97000122070312</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="B95">
-        <v>41.06999969482422</v>
+        <v>50.90000152587891</v>
       </c>
       <c r="C95">
-        <v>38.5099983215332</v>
+        <v>45.2599983215332</v>
       </c>
       <c r="D95">
-        <v>40.15999984741211</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="E95">
-        <v>40.15999984741211</v>
+        <v>49.08000183105469</v>
       </c>
       <c r="F95">
-        <v>2525100</v>
+        <v>3729900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>41.15000152587891</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="B96">
-        <v>42.31000137329102</v>
+        <v>50.47999954223633</v>
       </c>
       <c r="C96">
-        <v>39.70999908447266</v>
+        <v>47.84000015258789</v>
       </c>
       <c r="D96">
-        <v>41.20000076293945</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="E96">
-        <v>41.20000076293945</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="F96">
-        <v>1859000</v>
+        <v>1775700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>42.83000183105469</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="B97">
-        <v>44.38999938964844</v>
+        <v>51.09000015258789</v>
       </c>
       <c r="C97">
-        <v>42.2599983215332</v>
+        <v>48.5</v>
       </c>
       <c r="D97">
-        <v>44.15000152587891</v>
+        <v>50.18999862670898</v>
       </c>
       <c r="E97">
-        <v>44.15000152587891</v>
+        <v>50.18999862670898</v>
       </c>
       <c r="F97">
-        <v>1978100</v>
+        <v>1408200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>45.18000030517578</v>
+        <v>52.72999954223633</v>
       </c>
       <c r="B98">
-        <v>45.34999847412109</v>
+        <v>55.9900016784668</v>
       </c>
       <c r="C98">
-        <v>42.63000106811523</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="D98">
-        <v>45.22999954223633</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="E98">
-        <v>45.22999954223633</v>
+        <v>51.61999893188477</v>
       </c>
       <c r="F98">
-        <v>1562000</v>
+        <v>2909400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>43.31999969482422</v>
+        <v>50.93999862670898</v>
       </c>
       <c r="B99">
-        <v>45.70000076293945</v>
+        <v>51.95999908447266</v>
       </c>
       <c r="C99">
-        <v>43.11000061035156</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="D99">
-        <v>44.09999847412109</v>
+        <v>51.43000030517578</v>
       </c>
       <c r="E99">
-        <v>44.09999847412109</v>
+        <v>51.43000030517578</v>
       </c>
       <c r="F99">
-        <v>939200</v>
+        <v>1195300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>44.2599983215332</v>
+        <v>51.79000091552734</v>
       </c>
       <c r="B100">
-        <v>45.08000183105469</v>
+        <v>53.88000106811523</v>
       </c>
       <c r="C100">
-        <v>43.41999816894531</v>
+        <v>50.79999923706055</v>
       </c>
       <c r="D100">
-        <v>44.45000076293945</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="E100">
-        <v>44.45000076293945</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="F100">
-        <v>1380100</v>
+        <v>1838900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>45.70000076293945</v>
+        <v>51.95999908447266</v>
       </c>
       <c r="B101">
-        <v>50.90000152587891</v>
+        <v>52.47000122070312</v>
       </c>
       <c r="C101">
-        <v>45.2599983215332</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="D101">
-        <v>49.08000183105469</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="E101">
-        <v>49.08000183105469</v>
+        <v>48.72000122070312</v>
       </c>
       <c r="F101">
-        <v>3729900</v>
+        <v>1607600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>48.29999923706055</v>
+        <v>47.75</v>
       </c>
       <c r="B102">
-        <v>50.47999954223633</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="C102">
-        <v>47.84000015258789</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="D102">
-        <v>49.20000076293945</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E102">
-        <v>49.20000076293945</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F102">
-        <v>1775700</v>
+        <v>778900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>48.65000152587891</v>
+        <v>50.9900016784668</v>
       </c>
       <c r="B103">
-        <v>51.09000015258789</v>
+        <v>52.40999984741211</v>
       </c>
       <c r="C103">
-        <v>48.5</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="D103">
-        <v>50.18999862670898</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="E103">
-        <v>50.18999862670898</v>
+        <v>47.04999923706055</v>
       </c>
       <c r="F103">
-        <v>1408200</v>
+        <v>1854600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>52.72999954223633</v>
+        <v>47.61999893188477</v>
       </c>
       <c r="B104">
-        <v>55.9900016784668</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C104">
-        <v>51.52000045776367</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="D104">
-        <v>51.61999893188477</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="E104">
-        <v>51.61999893188477</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="F104">
-        <v>2909400</v>
+        <v>1887400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>50.93999862670898</v>
+        <v>47.56000137329102</v>
       </c>
       <c r="B105">
-        <v>51.95999908447266</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C105">
-        <v>49.68000030517578</v>
+        <v>46.18000030517578</v>
       </c>
       <c r="D105">
-        <v>51.43000030517578</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="E105">
-        <v>51.43000030517578</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="F105">
-        <v>1195300</v>
+        <v>1435400</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>51.79000091552734</v>
+        <v>48.06000137329102</v>
       </c>
       <c r="B106">
-        <v>53.88000106811523</v>
+        <v>50.86999893188477</v>
       </c>
       <c r="C106">
-        <v>50.79999923706055</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="D106">
-        <v>51.56999969482422</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="E106">
-        <v>51.56999969482422</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="F106">
-        <v>1838900</v>
+        <v>2525700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>51.95999908447266</v>
+        <v>47.27999877929688</v>
       </c>
       <c r="B107">
-        <v>52.47000122070312</v>
+        <v>47.93000030517578</v>
       </c>
       <c r="C107">
-        <v>48.20999908447266</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="D107">
-        <v>48.72000122070312</v>
+        <v>46.93999862670898</v>
       </c>
       <c r="E107">
-        <v>48.72000122070312</v>
+        <v>46.93999862670898</v>
       </c>
       <c r="F107">
-        <v>1607600</v>
+        <v>1348400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>47.75</v>
+        <v>46.63000106811523</v>
       </c>
       <c r="B108">
-        <v>49.68000030517578</v>
+        <v>48.47000122070312</v>
       </c>
       <c r="C108">
-        <v>47.59999847412109</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="D108">
-        <v>48.84999847412109</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="E108">
-        <v>48.84999847412109</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="F108">
-        <v>778900</v>
+        <v>1663300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>50.9900016784668</v>
+        <v>44.81000137329102</v>
       </c>
       <c r="B109">
-        <v>52.40999984741211</v>
+        <v>45.88000106811523</v>
       </c>
       <c r="C109">
-        <v>47.02000045776367</v>
+        <v>42.86999893188477</v>
       </c>
       <c r="D109">
-        <v>47.04999923706055</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="E109">
-        <v>47.04999923706055</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="F109">
-        <v>1854600</v>
+        <v>1832900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>47.61999893188477</v>
+        <v>44.81999969482422</v>
       </c>
       <c r="B110">
-        <v>48.29000091552734</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="C110">
-        <v>44.2599983215332</v>
+        <v>44.16999816894531</v>
       </c>
       <c r="D110">
-        <v>48.20000076293945</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="E110">
-        <v>48.20000076293945</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="F110">
-        <v>1887400</v>
+        <v>1663200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>47.56000137329102</v>
+        <v>46.5</v>
       </c>
       <c r="B111">
-        <v>49.06999969482422</v>
+        <v>48.18000030517578</v>
       </c>
       <c r="C111">
-        <v>46.18000030517578</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="D111">
-        <v>46.77999877929688</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="E111">
-        <v>46.77999877929688</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="F111">
-        <v>1435400</v>
+        <v>1014200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>48.06000137329102</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="B112">
-        <v>50.86999893188477</v>
+        <v>47.38999938964844</v>
       </c>
       <c r="C112">
-        <v>44.83000183105469</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="D112">
-        <v>48.70999908447266</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="E112">
-        <v>48.70999908447266</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="F112">
-        <v>2525700</v>
+        <v>1643700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>47.27999877929688</v>
+        <v>43.70000076293945</v>
       </c>
       <c r="B113">
-        <v>47.93000030517578</v>
+        <v>43.77000045776367</v>
       </c>
       <c r="C113">
-        <v>45.90000152587891</v>
+        <v>41.38999938964844</v>
       </c>
       <c r="D113">
-        <v>46.93999862670898</v>
+        <v>42.34000015258789</v>
       </c>
       <c r="E113">
-        <v>46.93999862670898</v>
+        <v>42.34000015258789</v>
       </c>
       <c r="F113">
-        <v>1348400</v>
+        <v>1656400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>46.63000106811523</v>
+        <v>42.86999893188477</v>
       </c>
       <c r="B114">
-        <v>48.47000122070312</v>
+        <v>44.47000122070312</v>
       </c>
       <c r="C114">
-        <v>46.22999954223633</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="D114">
-        <v>48.08000183105469</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="E114">
-        <v>48.08000183105469</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="F114">
-        <v>1663300</v>
+        <v>1294300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>44.81000137329102</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="B115">
-        <v>45.88000106811523</v>
+        <v>43.33000183105469</v>
       </c>
       <c r="C115">
-        <v>42.86999893188477</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D115">
-        <v>43.70999908447266</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="E115">
-        <v>43.70999908447266</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="F115">
-        <v>1832900</v>
+        <v>1117900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>44.81999969482422</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="B116">
-        <v>46.15000152587891</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="C116">
-        <v>44.16999816894531</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="D116">
-        <v>45.59999847412109</v>
+        <v>41.84999847412109</v>
       </c>
       <c r="E116">
-        <v>45.59999847412109</v>
+        <v>41.84999847412109</v>
       </c>
       <c r="F116">
-        <v>1663200</v>
+        <v>1466000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>46.5</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B117">
-        <v>48.18000030517578</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="C117">
-        <v>46.09999847412109</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="D117">
-        <v>46.56000137329102</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="E117">
-        <v>46.56000137329102</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="F117">
-        <v>1014200</v>
+        <v>2215800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
+        <v>45.5</v>
+      </c>
+      <c r="B118">
+        <v>47.90000152587891</v>
+      </c>
+      <c r="C118">
+        <v>45.2599983215332</v>
+      </c>
+      <c r="D118">
         <v>47.36999893188477</v>
       </c>
-      <c r="B118">
-        <v>47.38999938964844</v>
-      </c>
-      <c r="C118">
-        <v>43.70000076293945</v>
-      </c>
-      <c r="D118">
-        <v>43.81999969482422</v>
-      </c>
       <c r="E118">
-        <v>43.81999969482422</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="F118">
-        <v>1643700</v>
+        <v>1608900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>43.70000076293945</v>
+        <v>46.08000183105469</v>
       </c>
       <c r="B119">
-        <v>43.77000045776367</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="C119">
-        <v>41.38999938964844</v>
+        <v>42.88000106811523</v>
       </c>
       <c r="D119">
-        <v>42.34000015258789</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="E119">
-        <v>42.34000015258789</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="F119">
-        <v>1656400</v>
+        <v>1352100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>42.86999893188477</v>
+        <v>44.5</v>
       </c>
       <c r="B120">
-        <v>44.47000122070312</v>
+        <v>45.97999954223633</v>
       </c>
       <c r="C120">
-        <v>41.70000076293945</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D120">
-        <v>44.04000091552734</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="E120">
-        <v>44.04000091552734</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="F120">
-        <v>1294300</v>
+        <v>869900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>42.22000122070312</v>
+        <v>43.5</v>
       </c>
       <c r="B121">
-        <v>43.33000183105469</v>
+        <v>46.91999816894531</v>
       </c>
       <c r="C121">
-        <v>41.77999877929688</v>
+        <v>43.4900016784668</v>
       </c>
       <c r="D121">
-        <v>42.95999908447266</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="E121">
-        <v>42.95999908447266</v>
+        <v>45.84000015258789</v>
       </c>
       <c r="F121">
-        <v>1117900</v>
+        <v>843100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>43.16999816894531</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="B122">
-        <v>43.31000137329102</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="C122">
-        <v>41.33000183105469</v>
+        <v>46.56999969482422</v>
       </c>
       <c r="D122">
-        <v>41.84999847412109</v>
+        <v>46.72999954223633</v>
       </c>
       <c r="E122">
-        <v>41.84999847412109</v>
+        <v>46.72999954223633</v>
       </c>
       <c r="F122">
-        <v>1466000</v>
+        <v>1091700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>42.83000183105469</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="B123">
-        <v>46.22999954223633</v>
+        <v>47.75</v>
       </c>
       <c r="C123">
-        <v>42.83000183105469</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="D123">
-        <v>45.81000137329102</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E123">
-        <v>45.81000137329102</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F123">
-        <v>2215800</v>
+        <v>1341300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>45.5</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="B124">
-        <v>47.90000152587891</v>
+        <v>52.31999969482422</v>
       </c>
       <c r="C124">
-        <v>45.2599983215332</v>
+        <v>48.38999938964844</v>
       </c>
       <c r="D124">
-        <v>47.36999893188477</v>
+        <v>50.09000015258789</v>
       </c>
       <c r="E124">
-        <v>47.36999893188477</v>
+        <v>50.09000015258789</v>
       </c>
       <c r="F124">
-        <v>1608900</v>
+        <v>2744300</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>46.08000183105469</v>
+        <v>50.63000106811523</v>
       </c>
       <c r="B125">
-        <v>46.15000152587891</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>42.88000106811523</v>
+        <v>50.2599983215332</v>
       </c>
       <c r="D125">
-        <v>43.61000061035156</v>
+        <v>51.72999954223633</v>
       </c>
       <c r="E125">
-        <v>43.61000061035156</v>
+        <v>51.72999954223633</v>
       </c>
       <c r="F125">
-        <v>1352100</v>
+        <v>1821800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>44.5</v>
+        <v>53.36999893188477</v>
       </c>
       <c r="B126">
-        <v>45.97999954223633</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="C126">
-        <v>43.90000152587891</v>
+        <v>51.61000061035156</v>
       </c>
       <c r="D126">
-        <v>44.91999816894531</v>
+        <v>52.61999893188477</v>
       </c>
       <c r="E126">
-        <v>44.91999816894531</v>
+        <v>52.61999893188477</v>
       </c>
       <c r="F126">
-        <v>869900</v>
+        <v>1348700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>43.5</v>
+        <v>53.54999923706055</v>
       </c>
       <c r="B127">
-        <v>46.91999816894531</v>
+        <v>53.65000152587891</v>
       </c>
       <c r="C127">
-        <v>43.4900016784668</v>
+        <v>49.95000076293945</v>
       </c>
       <c r="D127">
-        <v>45.84000015258789</v>
+        <v>50.45000076293945</v>
       </c>
       <c r="E127">
-        <v>45.84000015258789</v>
+        <v>50.45000076293945</v>
       </c>
       <c r="F127">
-        <v>843100</v>
+        <v>1421600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>47.02999877929688</v>
+        <v>51.65000152587891</v>
       </c>
       <c r="B128">
-        <v>48.11999893188477</v>
+        <v>53.06999969482422</v>
       </c>
       <c r="C128">
-        <v>46.56999969482422</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="D128">
-        <v>46.72999954223633</v>
+        <v>51.77000045776367</v>
       </c>
       <c r="E128">
-        <v>46.72999954223633</v>
+        <v>51.77000045776367</v>
       </c>
       <c r="F128">
-        <v>1091700</v>
+        <v>1763500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>47.02000045776367</v>
+        <v>51.06999969482422</v>
       </c>
       <c r="B129">
-        <v>47.75</v>
+        <v>54.1609992980957</v>
       </c>
       <c r="C129">
-        <v>44.79999923706055</v>
+        <v>51</v>
       </c>
       <c r="D129">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E129">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F129">
-        <v>1341300</v>
+        <v>566242</v>
       </c>
     </row>
   </sheetData>
